--- a/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.640411303852062</v>
+        <v>1.640411303852034</v>
       </c>
       <c r="C2">
-        <v>0.6900284475030389</v>
+        <v>0.6900284475028684</v>
       </c>
       <c r="D2">
-        <v>0.0132403975927371</v>
+        <v>0.0132403975926465</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.385216605789822</v>
+        <v>1.385216605789836</v>
       </c>
       <c r="I2">
-        <v>0.2478129339638571</v>
+        <v>0.2478129339638357</v>
       </c>
       <c r="J2">
-        <v>0.5382987174942286</v>
+        <v>0.5382987174942073</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.004258216472685</v>
+        <v>1.004258216472714</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>1.413286624380021</v>
       </c>
       <c r="C3">
-        <v>0.5930653168612423</v>
+        <v>0.5930653168611855</v>
       </c>
       <c r="D3">
-        <v>0.01328262154316651</v>
+        <v>0.01328262154306259</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.309943589087894</v>
+        <v>2.309943589087865</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.259963618053192</v>
+        <v>1.259963618053163</v>
       </c>
       <c r="I3">
-        <v>0.2160149839655716</v>
+        <v>0.2160149839655787</v>
       </c>
       <c r="J3">
-        <v>0.4634197108331577</v>
+        <v>0.4634197108331222</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8638365222881959</v>
+        <v>0.8638365222881745</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.27579926337549</v>
+        <v>1.275799263375546</v>
       </c>
       <c r="C4">
-        <v>0.5345796722519083</v>
+        <v>0.5345796722516525</v>
       </c>
       <c r="D4">
-        <v>0.01329721090375324</v>
+        <v>0.01329721090360891</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.145142468825128</v>
+        <v>2.145142468825114</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.18566248964251</v>
+        <v>1.185662489642496</v>
       </c>
       <c r="I4">
-        <v>0.1970807023974963</v>
+        <v>0.1970807023974999</v>
       </c>
       <c r="J4">
-        <v>0.4181433722853498</v>
+        <v>0.4181433722853924</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7793576077550739</v>
+        <v>0.7793576077550881</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.220188172873918</v>
+        <v>1.220188172873947</v>
       </c>
       <c r="C5">
-        <v>0.5109691411277026</v>
+        <v>0.5109691411279584</v>
       </c>
       <c r="D5">
-        <v>0.01330039428607144</v>
+        <v>0.01330039428619934</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.079106082292569</v>
+        <v>2.07910608229254</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.155967902029701</v>
+        <v>1.155967902029687</v>
       </c>
       <c r="I5">
-        <v>0.1894936578553654</v>
+        <v>0.1894936578554116</v>
       </c>
       <c r="J5">
-        <v>0.3998410471260456</v>
+        <v>0.3998410471260314</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7453060456312244</v>
+        <v>0.7453060456312173</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.21097695907892</v>
+        <v>1.210976959078977</v>
       </c>
       <c r="C6">
-        <v>0.5070609568117845</v>
+        <v>0.5070609568121824</v>
       </c>
       <c r="D6">
-        <v>0.01330075858717938</v>
+        <v>0.01330075858739521</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>1.151070427717954</v>
       </c>
       <c r="I6">
-        <v>0.1882410819353311</v>
+        <v>0.1882410819353453</v>
       </c>
       <c r="J6">
-        <v>0.3968101434982074</v>
+        <v>0.3968101434982216</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7396726741650852</v>
+        <v>0.7396726741650639</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.275047686798501</v>
+        <v>1.27504768679853</v>
       </c>
       <c r="C7">
-        <v>0.5342604017879182</v>
+        <v>0.5342604017876909</v>
       </c>
       <c r="D7">
-        <v>0.01329726490475691</v>
+        <v>0.01329726490486127</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.144247520671158</v>
+        <v>2.144247520671186</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>1.185259744239858</v>
       </c>
       <c r="I7">
-        <v>0.1969778836133287</v>
+        <v>0.1969778836133003</v>
       </c>
       <c r="J7">
-        <v>0.4178959757560037</v>
+        <v>0.4178959757560179</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7788969405040334</v>
+        <v>0.7788969405040191</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.561640438529423</v>
+        <v>1.56164043852948</v>
       </c>
       <c r="C8">
-        <v>0.6563515376969917</v>
+        <v>0.6563515376967359</v>
       </c>
       <c r="D8">
-        <v>0.01325736404772293</v>
+        <v>0.01325736404772826</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>1.341443840105271</v>
       </c>
       <c r="I8">
-        <v>0.2367142437132017</v>
+        <v>0.2367142437132514</v>
       </c>
       <c r="J8">
-        <v>0.5123176491049293</v>
+        <v>0.5123176491049009</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9554394288115802</v>
+        <v>0.9554394288116015</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.143259804187608</v>
+        <v>2.143259804187551</v>
       </c>
       <c r="C9">
-        <v>0.9061977184221064</v>
+        <v>0.906197718421879</v>
       </c>
       <c r="D9">
-        <v>0.01308491615965757</v>
+        <v>0.01308491615963092</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.215398690627893</v>
+        <v>3.215398690627921</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>1.671977242677087</v>
       </c>
       <c r="I9">
-        <v>0.3203110369760154</v>
+        <v>0.3203110369760296</v>
       </c>
       <c r="J9">
-        <v>0.7044399792004015</v>
+        <v>0.7044399792004228</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.58888198764248</v>
+        <v>2.588881987642424</v>
       </c>
       <c r="C10">
-        <v>1.099452538713649</v>
+        <v>1.099452538713166</v>
       </c>
       <c r="D10">
-        <v>0.01289441889939535</v>
+        <v>0.01289441889926701</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.78870184117568</v>
+        <v>3.788701841175651</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.935280588590004</v>
+        <v>1.935280588589976</v>
       </c>
       <c r="I10">
-        <v>0.3867846555570509</v>
+        <v>0.3867846555570225</v>
       </c>
       <c r="J10">
         <v>0.8520793200457177</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.797254564831803</v>
+        <v>2.79725456483186</v>
       </c>
       <c r="C11">
-        <v>1.190357888477479</v>
+        <v>1.190357888477934</v>
       </c>
       <c r="D11">
-        <v>0.01279234331362744</v>
+        <v>0.01279234331385437</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.061321177109306</v>
+        <v>4.061321177109335</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>2.060995700921225</v>
       </c>
       <c r="I11">
-        <v>0.4185510292857089</v>
+        <v>0.4185510292857018</v>
       </c>
       <c r="J11">
-        <v>0.9212447218700532</v>
+        <v>0.9212447218700675</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.73430226772804</v>
+        <v>1.734302267728054</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.877137213225694</v>
+        <v>2.877137213225467</v>
       </c>
       <c r="C12">
-        <v>1.225298982222341</v>
+        <v>1.225298982221773</v>
       </c>
       <c r="D12">
-        <v>0.01275132842157012</v>
+        <v>0.01275132842172777</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>2.109600504294775</v>
       </c>
       <c r="I12">
-        <v>0.4308425476436355</v>
+        <v>0.4308425476435929</v>
       </c>
       <c r="J12">
         <v>0.9477821093496175</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.785567579841029</v>
+        <v>1.785567579841</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.85988676463478</v>
+        <v>2.859886764634723</v>
       </c>
       <c r="C13">
-        <v>1.217749260171217</v>
+        <v>1.217749260171274</v>
       </c>
       <c r="D13">
-        <v>0.01276026917930206</v>
+        <v>0.01276026917893569</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.099085597754168</v>
+        <v>2.099085597754183</v>
       </c>
       <c r="I13">
-        <v>0.42818292811954</v>
+        <v>0.4281829281195044</v>
       </c>
       <c r="J13">
-        <v>0.9420504054140508</v>
+        <v>0.9420504054140366</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.803805966523271</v>
+        <v>2.803805966523157</v>
       </c>
       <c r="C14">
-        <v>1.193221601737719</v>
+        <v>1.193221601737889</v>
       </c>
       <c r="D14">
-        <v>0.01278901719244274</v>
+        <v>0.01278901719249914</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.069936798752536</v>
+        <v>4.069936798752565</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.064973510315895</v>
+        <v>2.064973510315909</v>
       </c>
       <c r="I14">
-        <v>0.4195567336296406</v>
+        <v>0.4195567336297117</v>
       </c>
       <c r="J14">
-        <v>0.9234206724441805</v>
+        <v>0.9234206724441663</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.769587281363044</v>
+        <v>2.769587281363215</v>
       </c>
       <c r="C15">
-        <v>1.17826786654291</v>
+        <v>1.178267866543138</v>
       </c>
       <c r="D15">
-        <v>0.0128063141658874</v>
+        <v>0.01280631416544331</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.044213687555128</v>
+        <v>2.044213687555114</v>
       </c>
       <c r="I15">
-        <v>0.4143084840664955</v>
+        <v>0.4143084840664599</v>
       </c>
       <c r="J15">
-        <v>0.9120563429194419</v>
+        <v>0.9120563429194704</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.716571566053119</v>
+        <v>1.716571566053105</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.575391572214187</v>
+        <v>2.57539157221413</v>
       </c>
       <c r="C16">
-        <v>1.093579008454952</v>
+        <v>1.093579008454668</v>
       </c>
       <c r="D16">
-        <v>0.01290076755890901</v>
+        <v>0.01290076755856218</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.771147813820136</v>
+        <v>3.771147813820079</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>1.927196234039286</v>
       </c>
       <c r="I16">
-        <v>0.3847428713062442</v>
+        <v>0.38474287130623</v>
       </c>
       <c r="J16">
-        <v>0.8476042644810917</v>
+        <v>0.8476042644811059</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.457816269283057</v>
+        <v>2.457816269283001</v>
       </c>
       <c r="C17">
-        <v>1.042449407983156</v>
+        <v>1.042449407982843</v>
       </c>
       <c r="D17">
-        <v>0.01295466490693054</v>
+        <v>0.01295466490648112</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>1.857027431078151</v>
       </c>
       <c r="I17">
-        <v>0.3670247284711365</v>
+        <v>0.3670247284711223</v>
       </c>
       <c r="J17">
-        <v>0.8086166698402124</v>
+        <v>0.8086166698402053</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.3907114456469</v>
+        <v>2.390711445646787</v>
       </c>
       <c r="C18">
-        <v>1.013316793009182</v>
+        <v>1.013316793009153</v>
       </c>
       <c r="D18">
-        <v>0.01298422350552819</v>
+        <v>0.01298422350539186</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.532052449354865</v>
+        <v>3.532052449354836</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>1.817217157770031</v>
       </c>
       <c r="I18">
-        <v>0.3569745424170705</v>
+        <v>0.3569745424170918</v>
       </c>
       <c r="J18">
-        <v>0.7863766876240703</v>
+        <v>0.7863766876240348</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.36807586877768</v>
+        <v>2.368075868777566</v>
       </c>
       <c r="C19">
-        <v>1.003497919422472</v>
+        <v>1.003497919422188</v>
       </c>
       <c r="D19">
-        <v>0.01299398807501273</v>
+        <v>0.01299398807512731</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.502906402372815</v>
+        <v>3.502906402372872</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.803828275601546</v>
+        <v>1.803828275601575</v>
       </c>
       <c r="I19">
-        <v>0.3535947177945147</v>
+        <v>0.3535947177945431</v>
       </c>
       <c r="J19">
-        <v>0.7788767005853074</v>
+        <v>0.7788767005853359</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.46072063102504</v>
+        <v>1.460720631025012</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.470277295170661</v>
+        <v>2.470277295170717</v>
       </c>
       <c r="C20">
-        <v>1.047863111807004</v>
+        <v>1.04786311180672</v>
       </c>
       <c r="D20">
-        <v>0.01294907765245679</v>
+        <v>0.01294907765255227</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.634781442167537</v>
+        <v>3.634781442167508</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>1.864439217632793</v>
       </c>
       <c r="I20">
-        <v>0.3688959932857188</v>
+        <v>0.3688959932857259</v>
       </c>
       <c r="J20">
-        <v>0.8127474634140341</v>
+        <v>0.812747463414027</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.820250333057913</v>
+        <v>2.8202503330578</v>
       </c>
       <c r="C21">
-        <v>1.200411172968074</v>
+        <v>1.200411172968018</v>
       </c>
       <c r="D21">
-        <v>0.01278063850663713</v>
+        <v>0.0127806385066056</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.09157413560277</v>
+        <v>4.091574135602855</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>2.07496467073004</v>
       </c>
       <c r="I21">
-        <v>0.4220829624029321</v>
+        <v>0.4220829624028966</v>
       </c>
       <c r="J21">
-        <v>0.9288827825880617</v>
+        <v>0.9288827825880475</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.74904900018042</v>
+        <v>1.749049000180463</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.054763970302474</v>
+        <v>3.054763970302361</v>
       </c>
       <c r="C22">
-        <v>1.303175463969694</v>
+        <v>1.303175463969808</v>
       </c>
       <c r="D22">
-        <v>0.01265671333126184</v>
+        <v>0.01265671333122986</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.40192718001208</v>
+        <v>4.401927180012137</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.218463540801153</v>
+        <v>2.218463540801196</v>
       </c>
       <c r="I22">
-        <v>0.4583977174728986</v>
+        <v>0.4583977174729057</v>
       </c>
       <c r="J22">
-        <v>1.006833954571547</v>
+        <v>1.006833954571604</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.899944049405207</v>
+        <v>1.899944049405221</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,10 +1213,10 @@
         <v>2.92900965773589</v>
       </c>
       <c r="C23">
-        <v>1.248015376521607</v>
+        <v>1.248015376521778</v>
       </c>
       <c r="D23">
-        <v>0.01272417261147485</v>
+        <v>0.01272417261145709</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.141280894997763</v>
+        <v>2.141280894997749</v>
       </c>
       <c r="I23">
-        <v>0.4388576303261544</v>
+        <v>0.4388576303261758</v>
       </c>
       <c r="J23">
         <v>0.9650208597700498</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.818914430330196</v>
+        <v>1.81891443033021</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.464642148673477</v>
+        <v>2.464642148673704</v>
       </c>
       <c r="C24">
-        <v>1.045414765141288</v>
+        <v>1.045414765141203</v>
       </c>
       <c r="D24">
-        <v>0.01295160808619533</v>
+        <v>0.01295160808639562</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.86108670660775</v>
+        <v>1.861086706607765</v>
       </c>
       <c r="I24">
-        <v>0.3680495733254148</v>
+        <v>0.3680495733254432</v>
       </c>
       <c r="J24">
-        <v>0.8108793923466777</v>
+        <v>0.8108793923466706</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.522003444412135</v>
+        <v>1.522003444412164</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.983209574352571</v>
+        <v>1.983209574352713</v>
       </c>
       <c r="C25">
-        <v>0.8371732416115378</v>
+        <v>0.8371732416117368</v>
       </c>
       <c r="D25">
-        <v>0.01314228062587741</v>
+        <v>0.01314228062596623</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.579419111609937</v>
+        <v>1.579419111609951</v>
       </c>
       <c r="I25">
-        <v>0.2969369597399663</v>
+        <v>0.2969369597399805</v>
       </c>
       <c r="J25">
-        <v>0.6515061979356034</v>
+        <v>0.6515061979356318</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.218095575177443</v>
+        <v>1.218095575177458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.640411303852034</v>
+        <v>1.640411303852062</v>
       </c>
       <c r="C2">
-        <v>0.6900284475028684</v>
+        <v>0.6900284475030389</v>
       </c>
       <c r="D2">
-        <v>0.0132403975926465</v>
+        <v>0.0132403975927371</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.385216605789836</v>
+        <v>1.385216605789822</v>
       </c>
       <c r="I2">
-        <v>0.2478129339638357</v>
+        <v>0.2478129339638571</v>
       </c>
       <c r="J2">
-        <v>0.5382987174942073</v>
+        <v>0.5382987174942286</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.004258216472714</v>
+        <v>1.004258216472685</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>1.413286624380021</v>
       </c>
       <c r="C3">
-        <v>0.5930653168611855</v>
+        <v>0.5930653168612423</v>
       </c>
       <c r="D3">
-        <v>0.01328262154306259</v>
+        <v>0.01328262154316651</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.309943589087865</v>
+        <v>2.309943589087894</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.259963618053163</v>
+        <v>1.259963618053192</v>
       </c>
       <c r="I3">
-        <v>0.2160149839655787</v>
+        <v>0.2160149839655716</v>
       </c>
       <c r="J3">
-        <v>0.4634197108331222</v>
+        <v>0.4634197108331577</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8638365222881745</v>
+        <v>0.8638365222881959</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.275799263375546</v>
+        <v>1.27579926337549</v>
       </c>
       <c r="C4">
-        <v>0.5345796722516525</v>
+        <v>0.5345796722519083</v>
       </c>
       <c r="D4">
-        <v>0.01329721090360891</v>
+        <v>0.01329721090375324</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.145142468825114</v>
+        <v>2.145142468825128</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.185662489642496</v>
+        <v>1.18566248964251</v>
       </c>
       <c r="I4">
-        <v>0.1970807023974999</v>
+        <v>0.1970807023974963</v>
       </c>
       <c r="J4">
-        <v>0.4181433722853924</v>
+        <v>0.4181433722853498</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7793576077550881</v>
+        <v>0.7793576077550739</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.220188172873947</v>
+        <v>1.220188172873918</v>
       </c>
       <c r="C5">
-        <v>0.5109691411279584</v>
+        <v>0.5109691411277026</v>
       </c>
       <c r="D5">
-        <v>0.01330039428619934</v>
+        <v>0.01330039428607144</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.07910608229254</v>
+        <v>2.079106082292569</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.155967902029687</v>
+        <v>1.155967902029701</v>
       </c>
       <c r="I5">
-        <v>0.1894936578554116</v>
+        <v>0.1894936578553654</v>
       </c>
       <c r="J5">
-        <v>0.3998410471260314</v>
+        <v>0.3998410471260456</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7453060456312173</v>
+        <v>0.7453060456312244</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.210976959078977</v>
+        <v>1.21097695907892</v>
       </c>
       <c r="C6">
-        <v>0.5070609568121824</v>
+        <v>0.5070609568117845</v>
       </c>
       <c r="D6">
-        <v>0.01330075858739521</v>
+        <v>0.01330075858717938</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>1.151070427717954</v>
       </c>
       <c r="I6">
-        <v>0.1882410819353453</v>
+        <v>0.1882410819353311</v>
       </c>
       <c r="J6">
-        <v>0.3968101434982216</v>
+        <v>0.3968101434982074</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7396726741650639</v>
+        <v>0.7396726741650852</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.27504768679853</v>
+        <v>1.275047686798501</v>
       </c>
       <c r="C7">
-        <v>0.5342604017876909</v>
+        <v>0.5342604017879182</v>
       </c>
       <c r="D7">
-        <v>0.01329726490486127</v>
+        <v>0.01329726490475691</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.144247520671186</v>
+        <v>2.144247520671158</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>1.185259744239858</v>
       </c>
       <c r="I7">
-        <v>0.1969778836133003</v>
+        <v>0.1969778836133287</v>
       </c>
       <c r="J7">
-        <v>0.4178959757560179</v>
+        <v>0.4178959757560037</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7788969405040191</v>
+        <v>0.7788969405040334</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.56164043852948</v>
+        <v>1.561640438529423</v>
       </c>
       <c r="C8">
-        <v>0.6563515376967359</v>
+        <v>0.6563515376969917</v>
       </c>
       <c r="D8">
-        <v>0.01325736404772826</v>
+        <v>0.01325736404772293</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>1.341443840105271</v>
       </c>
       <c r="I8">
-        <v>0.2367142437132514</v>
+        <v>0.2367142437132017</v>
       </c>
       <c r="J8">
-        <v>0.5123176491049009</v>
+        <v>0.5123176491049293</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9554394288116015</v>
+        <v>0.9554394288115802</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.143259804187551</v>
+        <v>2.143259804187608</v>
       </c>
       <c r="C9">
-        <v>0.906197718421879</v>
+        <v>0.9061977184221064</v>
       </c>
       <c r="D9">
-        <v>0.01308491615963092</v>
+        <v>0.01308491615965757</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.215398690627921</v>
+        <v>3.215398690627893</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>1.671977242677087</v>
       </c>
       <c r="I9">
-        <v>0.3203110369760296</v>
+        <v>0.3203110369760154</v>
       </c>
       <c r="J9">
-        <v>0.7044399792004228</v>
+        <v>0.7044399792004015</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.588881987642424</v>
+        <v>2.58888198764248</v>
       </c>
       <c r="C10">
-        <v>1.099452538713166</v>
+        <v>1.099452538713649</v>
       </c>
       <c r="D10">
-        <v>0.01289441889926701</v>
+        <v>0.01289441889939535</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.788701841175651</v>
+        <v>3.78870184117568</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.935280588589976</v>
+        <v>1.935280588590004</v>
       </c>
       <c r="I10">
-        <v>0.3867846555570225</v>
+        <v>0.3867846555570509</v>
       </c>
       <c r="J10">
         <v>0.8520793200457177</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.79725456483186</v>
+        <v>2.797254564831803</v>
       </c>
       <c r="C11">
-        <v>1.190357888477934</v>
+        <v>1.190357888477479</v>
       </c>
       <c r="D11">
-        <v>0.01279234331385437</v>
+        <v>0.01279234331362744</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.061321177109335</v>
+        <v>4.061321177109306</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>2.060995700921225</v>
       </c>
       <c r="I11">
-        <v>0.4185510292857018</v>
+        <v>0.4185510292857089</v>
       </c>
       <c r="J11">
-        <v>0.9212447218700675</v>
+        <v>0.9212447218700532</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.734302267728054</v>
+        <v>1.73430226772804</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.877137213225467</v>
+        <v>2.877137213225694</v>
       </c>
       <c r="C12">
-        <v>1.225298982221773</v>
+        <v>1.225298982222341</v>
       </c>
       <c r="D12">
-        <v>0.01275132842172777</v>
+        <v>0.01275132842157012</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>2.109600504294775</v>
       </c>
       <c r="I12">
-        <v>0.4308425476435929</v>
+        <v>0.4308425476436355</v>
       </c>
       <c r="J12">
         <v>0.9477821093496175</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.785567579841</v>
+        <v>1.785567579841029</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.859886764634723</v>
+        <v>2.85988676463478</v>
       </c>
       <c r="C13">
-        <v>1.217749260171274</v>
+        <v>1.217749260171217</v>
       </c>
       <c r="D13">
-        <v>0.01276026917893569</v>
+        <v>0.01276026917930206</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.099085597754183</v>
+        <v>2.099085597754168</v>
       </c>
       <c r="I13">
-        <v>0.4281829281195044</v>
+        <v>0.42818292811954</v>
       </c>
       <c r="J13">
-        <v>0.9420504054140366</v>
+        <v>0.9420504054140508</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.803805966523157</v>
+        <v>2.803805966523271</v>
       </c>
       <c r="C14">
-        <v>1.193221601737889</v>
+        <v>1.193221601737719</v>
       </c>
       <c r="D14">
-        <v>0.01278901719249914</v>
+        <v>0.01278901719244274</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.069936798752565</v>
+        <v>4.069936798752536</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.064973510315909</v>
+        <v>2.064973510315895</v>
       </c>
       <c r="I14">
-        <v>0.4195567336297117</v>
+        <v>0.4195567336296406</v>
       </c>
       <c r="J14">
-        <v>0.9234206724441663</v>
+        <v>0.9234206724441805</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.769587281363215</v>
+        <v>2.769587281363044</v>
       </c>
       <c r="C15">
-        <v>1.178267866543138</v>
+        <v>1.17826786654291</v>
       </c>
       <c r="D15">
-        <v>0.01280631416544331</v>
+        <v>0.0128063141658874</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.044213687555114</v>
+        <v>2.044213687555128</v>
       </c>
       <c r="I15">
-        <v>0.4143084840664599</v>
+        <v>0.4143084840664955</v>
       </c>
       <c r="J15">
-        <v>0.9120563429194704</v>
+        <v>0.9120563429194419</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.716571566053105</v>
+        <v>1.716571566053119</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.57539157221413</v>
+        <v>2.575391572214187</v>
       </c>
       <c r="C16">
-        <v>1.093579008454668</v>
+        <v>1.093579008454952</v>
       </c>
       <c r="D16">
-        <v>0.01290076755856218</v>
+        <v>0.01290076755890901</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.771147813820079</v>
+        <v>3.771147813820136</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>1.927196234039286</v>
       </c>
       <c r="I16">
-        <v>0.38474287130623</v>
+        <v>0.3847428713062442</v>
       </c>
       <c r="J16">
-        <v>0.8476042644811059</v>
+        <v>0.8476042644810917</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.457816269283001</v>
+        <v>2.457816269283057</v>
       </c>
       <c r="C17">
-        <v>1.042449407982843</v>
+        <v>1.042449407983156</v>
       </c>
       <c r="D17">
-        <v>0.01295466490648112</v>
+        <v>0.01295466490693054</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>1.857027431078151</v>
       </c>
       <c r="I17">
-        <v>0.3670247284711223</v>
+        <v>0.3670247284711365</v>
       </c>
       <c r="J17">
-        <v>0.8086166698402053</v>
+        <v>0.8086166698402124</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.390711445646787</v>
+        <v>2.3907114456469</v>
       </c>
       <c r="C18">
-        <v>1.013316793009153</v>
+        <v>1.013316793009182</v>
       </c>
       <c r="D18">
-        <v>0.01298422350539186</v>
+        <v>0.01298422350552819</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.532052449354836</v>
+        <v>3.532052449354865</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>1.817217157770031</v>
       </c>
       <c r="I18">
-        <v>0.3569745424170918</v>
+        <v>0.3569745424170705</v>
       </c>
       <c r="J18">
-        <v>0.7863766876240348</v>
+        <v>0.7863766876240703</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.368075868777566</v>
+        <v>2.36807586877768</v>
       </c>
       <c r="C19">
-        <v>1.003497919422188</v>
+        <v>1.003497919422472</v>
       </c>
       <c r="D19">
-        <v>0.01299398807512731</v>
+        <v>0.01299398807501273</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.502906402372872</v>
+        <v>3.502906402372815</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.803828275601575</v>
+        <v>1.803828275601546</v>
       </c>
       <c r="I19">
-        <v>0.3535947177945431</v>
+        <v>0.3535947177945147</v>
       </c>
       <c r="J19">
-        <v>0.7788767005853359</v>
+        <v>0.7788767005853074</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.460720631025012</v>
+        <v>1.46072063102504</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.470277295170717</v>
+        <v>2.470277295170661</v>
       </c>
       <c r="C20">
-        <v>1.04786311180672</v>
+        <v>1.047863111807004</v>
       </c>
       <c r="D20">
-        <v>0.01294907765255227</v>
+        <v>0.01294907765245679</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.634781442167508</v>
+        <v>3.634781442167537</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>1.864439217632793</v>
       </c>
       <c r="I20">
-        <v>0.3688959932857259</v>
+        <v>0.3688959932857188</v>
       </c>
       <c r="J20">
-        <v>0.812747463414027</v>
+        <v>0.8127474634140341</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.8202503330578</v>
+        <v>2.820250333057913</v>
       </c>
       <c r="C21">
-        <v>1.200411172968018</v>
+        <v>1.200411172968074</v>
       </c>
       <c r="D21">
-        <v>0.0127806385066056</v>
+        <v>0.01278063850663713</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.091574135602855</v>
+        <v>4.09157413560277</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>2.07496467073004</v>
       </c>
       <c r="I21">
-        <v>0.4220829624028966</v>
+        <v>0.4220829624029321</v>
       </c>
       <c r="J21">
-        <v>0.9288827825880475</v>
+        <v>0.9288827825880617</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.749049000180463</v>
+        <v>1.74904900018042</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.054763970302361</v>
+        <v>3.054763970302474</v>
       </c>
       <c r="C22">
-        <v>1.303175463969808</v>
+        <v>1.303175463969694</v>
       </c>
       <c r="D22">
-        <v>0.01265671333122986</v>
+        <v>0.01265671333126184</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.401927180012137</v>
+        <v>4.40192718001208</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.218463540801196</v>
+        <v>2.218463540801153</v>
       </c>
       <c r="I22">
-        <v>0.4583977174729057</v>
+        <v>0.4583977174728986</v>
       </c>
       <c r="J22">
-        <v>1.006833954571604</v>
+        <v>1.006833954571547</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.899944049405221</v>
+        <v>1.899944049405207</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,10 +1213,10 @@
         <v>2.92900965773589</v>
       </c>
       <c r="C23">
-        <v>1.248015376521778</v>
+        <v>1.248015376521607</v>
       </c>
       <c r="D23">
-        <v>0.01272417261145709</v>
+        <v>0.01272417261147485</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.141280894997749</v>
+        <v>2.141280894997763</v>
       </c>
       <c r="I23">
-        <v>0.4388576303261758</v>
+        <v>0.4388576303261544</v>
       </c>
       <c r="J23">
         <v>0.9650208597700498</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.81891443033021</v>
+        <v>1.818914430330196</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.464642148673704</v>
+        <v>2.464642148673477</v>
       </c>
       <c r="C24">
-        <v>1.045414765141203</v>
+        <v>1.045414765141288</v>
       </c>
       <c r="D24">
-        <v>0.01295160808639562</v>
+        <v>0.01295160808619533</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.861086706607765</v>
+        <v>1.86108670660775</v>
       </c>
       <c r="I24">
-        <v>0.3680495733254432</v>
+        <v>0.3680495733254148</v>
       </c>
       <c r="J24">
-        <v>0.8108793923466706</v>
+        <v>0.8108793923466777</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.522003444412164</v>
+        <v>1.522003444412135</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.983209574352713</v>
+        <v>1.983209574352571</v>
       </c>
       <c r="C25">
-        <v>0.8371732416117368</v>
+        <v>0.8371732416115378</v>
       </c>
       <c r="D25">
-        <v>0.01314228062596623</v>
+        <v>0.01314228062587741</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.579419111609951</v>
+        <v>1.579419111609937</v>
       </c>
       <c r="I25">
-        <v>0.2969369597399805</v>
+        <v>0.2969369597399663</v>
       </c>
       <c r="J25">
-        <v>0.6515061979356318</v>
+        <v>0.6515061979356034</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.218095575177458</v>
+        <v>1.218095575177443</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.640411303852062</v>
+        <v>1.625422147667706</v>
       </c>
       <c r="C2">
-        <v>0.6900284475030389</v>
+        <v>0.6817185305440034</v>
       </c>
       <c r="D2">
-        <v>0.0132403975927371</v>
+        <v>0.01552314556364509</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.586548858057313</v>
+        <v>2.601878399306855</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007901747534557821</v>
       </c>
       <c r="H2">
-        <v>1.385216605789822</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2478129339638571</v>
+        <v>1.399381904237956</v>
       </c>
       <c r="J2">
-        <v>0.5382987174942286</v>
+        <v>0.2468209347495574</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5328890891461313</v>
       </c>
       <c r="L2">
-        <v>1.004258216472685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1.000017451997557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.413286624380021</v>
+        <v>1.400332566990215</v>
       </c>
       <c r="C3">
-        <v>0.5930653168612423</v>
+        <v>0.5859541457019475</v>
       </c>
       <c r="D3">
-        <v>0.01328262154316651</v>
+        <v>0.01557907282982951</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.309943589087894</v>
+        <v>2.328524088506867</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007986400544065239</v>
       </c>
       <c r="H3">
-        <v>1.259963618053192</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2160149839655716</v>
+        <v>1.275811634247319</v>
       </c>
       <c r="J3">
-        <v>0.4634197108331577</v>
+        <v>0.2150294653017397</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4587582459901611</v>
       </c>
       <c r="L3">
-        <v>0.8638365222881959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8603703406005678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.27579926337549</v>
+        <v>1.264100171068435</v>
       </c>
       <c r="C4">
-        <v>0.5345796722519083</v>
+        <v>0.5282065769833366</v>
       </c>
       <c r="D4">
-        <v>0.01329721090375324</v>
+        <v>0.01560142937890596</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.145142468825128</v>
+        <v>2.16570889027804</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008039626927172251</v>
       </c>
       <c r="H4">
-        <v>1.18566248964251</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1970807023974963</v>
+        <v>1.202538536989579</v>
       </c>
       <c r="J4">
-        <v>0.4181433722853498</v>
+        <v>0.1960939153584818</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4139431213136149</v>
       </c>
       <c r="L4">
-        <v>0.7793576077550739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.7763572248490007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.220188172873918</v>
+        <v>1.209002855085231</v>
       </c>
       <c r="C5">
-        <v>0.5109691411277026</v>
+        <v>0.5048979485459881</v>
       </c>
       <c r="D5">
-        <v>0.01330039428607144</v>
+        <v>0.01560762105324054</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.079106082292569</v>
+        <v>2.100481158756125</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008061649912244684</v>
       </c>
       <c r="H5">
-        <v>1.155967902029701</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1894936578553654</v>
+        <v>1.173262567336167</v>
       </c>
       <c r="J5">
-        <v>0.3998410471260456</v>
+        <v>0.1885051825986714</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3958295818150717</v>
       </c>
       <c r="L5">
-        <v>0.7453060456312244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.7424936817008714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.21097695907892</v>
+        <v>1.199877123240299</v>
       </c>
       <c r="C6">
-        <v>0.5070609568117845</v>
+        <v>0.5010399799261336</v>
       </c>
       <c r="D6">
-        <v>0.01330075858717938</v>
+        <v>0.01560847555812783</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.068204526640798</v>
+        <v>2.089713894301141</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008065327430484128</v>
       </c>
       <c r="H6">
-        <v>1.151070427717954</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1882410819353311</v>
+        <v>1.168434612002784</v>
       </c>
       <c r="J6">
-        <v>0.3968101434982074</v>
+        <v>0.1872522595174928</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3928300865992611</v>
       </c>
       <c r="L6">
-        <v>0.7396726741650852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.7368914398896038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.275047686798501</v>
+        <v>1.26335551261019</v>
       </c>
       <c r="C7">
-        <v>0.5342604017879182</v>
+        <v>0.5278913727422605</v>
       </c>
       <c r="D7">
-        <v>0.01329726490475691</v>
+        <v>0.01560152457891428</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.144247520671158</v>
+        <v>2.164824848060874</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008039922565520982</v>
       </c>
       <c r="H7">
-        <v>1.185259744239858</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1969778836133287</v>
+        <v>1.202141437261716</v>
       </c>
       <c r="J7">
-        <v>0.4178959757560037</v>
+        <v>0.1959910783695769</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4136982669601039</v>
       </c>
       <c r="L7">
-        <v>0.7788969405040334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.7758990997498643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.561640438529423</v>
+        <v>1.547352508021248</v>
       </c>
       <c r="C8">
-        <v>0.6563515376969917</v>
+        <v>0.6484549204426173</v>
       </c>
       <c r="D8">
-        <v>0.01325736404772293</v>
+        <v>0.01554497479489481</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.490038830229551</v>
+        <v>2.506492654091147</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007930688423152983</v>
       </c>
       <c r="H8">
-        <v>1.341443840105271</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2367142437132017</v>
+        <v>1.356191042083282</v>
       </c>
       <c r="J8">
-        <v>0.5123176491049293</v>
+        <v>0.2357256647440025</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5071658464009374</v>
       </c>
       <c r="L8">
-        <v>0.9554394288115802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.9514682040390028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.143259804187608</v>
+        <v>2.12387153887579</v>
       </c>
       <c r="C9">
-        <v>0.9061977184221064</v>
+        <v>0.8952892694162244</v>
       </c>
       <c r="D9">
-        <v>0.01308491615965757</v>
+        <v>0.01533445027550373</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.215398690627893</v>
+        <v>3.223584118712751</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007725451424264573</v>
       </c>
       <c r="H9">
-        <v>1.671977242677087</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3203110369760154</v>
+        <v>1.682446198033318</v>
       </c>
       <c r="J9">
-        <v>0.7044399792004015</v>
+        <v>0.3192692125471979</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6974120749433226</v>
       </c>
       <c r="L9">
-        <v>1.318675186792504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.312681801829626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.58888198764248</v>
+        <v>2.565652130252033</v>
       </c>
       <c r="C10">
-        <v>1.099452538713649</v>
+        <v>1.086267446674384</v>
       </c>
       <c r="D10">
-        <v>0.01289441889939535</v>
+        <v>0.0151121884678318</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.78870184117568</v>
+        <v>3.790532931058095</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007578651350132513</v>
       </c>
       <c r="H10">
-        <v>1.935280588590004</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3867846555570509</v>
+        <v>1.94246456041283</v>
       </c>
       <c r="J10">
-        <v>0.8520793200457177</v>
+        <v>0.3856591223505177</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8436370931796375</v>
       </c>
       <c r="L10">
-        <v>1.601083325995845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.593474630001538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.797254564831803</v>
+        <v>2.772231662116042</v>
       </c>
       <c r="C11">
-        <v>1.190357888477479</v>
+        <v>1.176108017524143</v>
       </c>
       <c r="D11">
-        <v>0.01279234331362744</v>
+        <v>0.0149947112192903</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.061321177109306</v>
+        <v>4.060153402481006</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007512347491231974</v>
       </c>
       <c r="H11">
-        <v>2.060995700921225</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4185510292857089</v>
+        <v>2.066630528989094</v>
       </c>
       <c r="J11">
-        <v>0.9212447218700532</v>
+        <v>0.4173734322536191</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9121420142343482</v>
       </c>
       <c r="L11">
-        <v>1.73430226772804</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.725913023657441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.877137213225694</v>
+        <v>2.851426184270679</v>
       </c>
       <c r="C12">
-        <v>1.225298982222341</v>
+        <v>1.210640129562194</v>
       </c>
       <c r="D12">
-        <v>0.01275132842157012</v>
+        <v>0.0149477146417305</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.166553288650846</v>
+        <v>4.164229406071371</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000748727076941271</v>
       </c>
       <c r="H12">
-        <v>2.109600504294775</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4308425476436355</v>
+        <v>2.114638340803637</v>
       </c>
       <c r="J12">
-        <v>0.9477821093496175</v>
+        <v>0.4296427488354695</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9384258675460586</v>
       </c>
       <c r="L12">
-        <v>1.785567579841029</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.776874306737653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.85988676463478</v>
+        <v>2.83432438958539</v>
       </c>
       <c r="C13">
-        <v>1.217749260171217</v>
+        <v>1.203178774559319</v>
       </c>
       <c r="D13">
-        <v>0.01276026917930206</v>
+        <v>0.01495795052766535</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.143795631992106</v>
+        <v>4.141721739357166</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007492670761468436</v>
       </c>
       <c r="H13">
-        <v>2.099085597754168</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.42818292811954</v>
+        <v>2.104252513051989</v>
       </c>
       <c r="J13">
-        <v>0.9420504054140508</v>
+        <v>0.4269880303068021</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.932748936557573</v>
       </c>
       <c r="L13">
-        <v>1.774487904564296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.765860519910731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.803805966523271</v>
+        <v>2.7787266511952</v>
       </c>
       <c r="C14">
-        <v>1.193221601737719</v>
+        <v>1.178938209555724</v>
       </c>
       <c r="D14">
-        <v>0.01278901719244274</v>
+        <v>0.01499089605458348</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.069936798752536</v>
+        <v>4.068674353223059</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007510284024468845</v>
       </c>
       <c r="H14">
-        <v>2.064973510315895</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4195567336296406</v>
+        <v>2.070559447279663</v>
       </c>
       <c r="J14">
-        <v>0.9234206724441805</v>
+        <v>0.4183773630241276</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9142971812711949</v>
       </c>
       <c r="L14">
-        <v>1.738502647261882</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.730088572189487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.769587281363044</v>
+        <v>2.74480257774627</v>
       </c>
       <c r="C15">
-        <v>1.17826786654291</v>
+        <v>1.164159522996783</v>
       </c>
       <c r="D15">
-        <v>0.0128063141658874</v>
+        <v>0.01501074426404436</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.024965794410235</v>
+        <v>4.024197549934371</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007521075504724947</v>
       </c>
       <c r="H15">
-        <v>2.044213687555128</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4143084840664955</v>
+        <v>2.050054855349259</v>
       </c>
       <c r="J15">
-        <v>0.9120563429194419</v>
+        <v>0.4131382843974549</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.9030413902299443</v>
       </c>
       <c r="L15">
-        <v>1.716571566053119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.708286985693178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.575391572214187</v>
+        <v>2.552277768851184</v>
       </c>
       <c r="C16">
-        <v>1.093579008454952</v>
+        <v>1.080462787798666</v>
       </c>
       <c r="D16">
-        <v>0.01290076755890901</v>
+        <v>0.01511952347940415</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.771147813820136</v>
+        <v>3.773172308350695</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007582990974499647</v>
       </c>
       <c r="H16">
-        <v>1.927196234039286</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3847428713062442</v>
+        <v>1.934480142033209</v>
       </c>
       <c r="J16">
-        <v>0.8476042644810917</v>
+        <v>0.3836204211514271</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8392047793102648</v>
       </c>
       <c r="L16">
-        <v>1.592483816904263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.584925060102847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.457816269283057</v>
+        <v>2.435714168023594</v>
       </c>
       <c r="C17">
-        <v>1.042449407983156</v>
+        <v>1.029933331508914</v>
       </c>
       <c r="D17">
-        <v>0.01295466490693054</v>
+        <v>0.01518195712168513</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.618664404129987</v>
+        <v>3.622371213519017</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007621071144648361</v>
       </c>
       <c r="H17">
-        <v>1.857027431078151</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3670247284711365</v>
+        <v>1.865180759998211</v>
       </c>
       <c r="J17">
-        <v>0.8086166698402124</v>
+        <v>0.3659276860188641</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8005897461318909</v>
       </c>
       <c r="L17">
-        <v>1.517666347189845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.510539934905083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.3907114456469</v>
+        <v>2.369187150053392</v>
       </c>
       <c r="C18">
-        <v>1.013316793009182</v>
+        <v>1.001143273876778</v>
       </c>
       <c r="D18">
-        <v>0.01298422350552819</v>
+        <v>0.01521633683521717</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.532052449354865</v>
+        <v>3.536717040148318</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007643021203784909</v>
       </c>
       <c r="H18">
-        <v>1.817217157770031</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3569745424170705</v>
+        <v>1.82586557204192</v>
       </c>
       <c r="J18">
-        <v>0.7863766876240703</v>
+        <v>0.3558908319212009</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7785625099448836</v>
       </c>
       <c r="L18">
-        <v>1.475071195571019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.468189285117518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.36807586877768</v>
+        <v>2.346746575272903</v>
       </c>
       <c r="C19">
-        <v>1.003497919422472</v>
+        <v>0.9914399759746857</v>
       </c>
       <c r="D19">
-        <v>0.01299398807501273</v>
+        <v>0.0152277188632044</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.502906402372815</v>
+        <v>3.507893726166373</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007650462303558163</v>
       </c>
       <c r="H19">
-        <v>1.803828275601546</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3535947177945147</v>
+        <v>1.812643529549192</v>
       </c>
       <c r="J19">
-        <v>0.7788767005853074</v>
+        <v>0.3525153137726988</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7711343166868616</v>
       </c>
       <c r="L19">
-        <v>1.46072063102504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.453920838974383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.470277295170661</v>
+        <v>2.448067937871542</v>
       </c>
       <c r="C20">
-        <v>1.047863111807004</v>
+        <v>1.035283431613664</v>
       </c>
       <c r="D20">
-        <v>0.01294907765245679</v>
+        <v>0.01517547043304468</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.634781442167537</v>
+        <v>3.638310217518182</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007617012797617645</v>
       </c>
       <c r="H20">
-        <v>1.864439217632793</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3688959932857188</v>
+        <v>1.872500527359492</v>
       </c>
       <c r="J20">
-        <v>0.8127474634140341</v>
+        <v>0.3677963818900452</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8046810458262499</v>
       </c>
       <c r="L20">
-        <v>1.525584563201491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.518412571118745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.820250333057913</v>
+        <v>2.795029402775015</v>
       </c>
       <c r="C21">
-        <v>1.200411172968074</v>
+        <v>1.186043625419074</v>
       </c>
       <c r="D21">
-        <v>0.01278063850663713</v>
+        <v>0.01498128862164361</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.09157413560277</v>
+        <v>4.090073949208858</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007505110062855835</v>
       </c>
       <c r="H21">
-        <v>2.07496467073004</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4220829624029321</v>
+        <v>2.080427834472857</v>
       </c>
       <c r="J21">
-        <v>0.9288827825880617</v>
+        <v>0.420899102942883</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9197071166784241</v>
       </c>
       <c r="L21">
-        <v>1.74904900018042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.740572517359254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.054763970302474</v>
+        <v>3.027519915910545</v>
       </c>
       <c r="C22">
-        <v>1.303175463969694</v>
+        <v>1.287604805035642</v>
       </c>
       <c r="D22">
-        <v>0.01265671333126184</v>
+        <v>0.01483966099712619</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.40192718001208</v>
+        <v>4.397017698470506</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007432134952866097</v>
       </c>
       <c r="H22">
-        <v>2.218463540801153</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4583977174728986</v>
+        <v>2.222166712840519</v>
       </c>
       <c r="J22">
-        <v>1.006833954571547</v>
+        <v>0.4571439908564372</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.99691276901207</v>
       </c>
       <c r="L22">
-        <v>1.899944049405207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.890564541537856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.92900965773589</v>
+        <v>2.902851409929553</v>
       </c>
       <c r="C23">
-        <v>1.248015376521607</v>
+        <v>1.233090623031671</v>
       </c>
       <c r="D23">
-        <v>0.01272417261147485</v>
+        <v>0.01491665341222159</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.235094672533876</v>
+        <v>4.232017919833766</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007471082366582004</v>
       </c>
       <c r="H23">
-        <v>2.141280894997763</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4388576303261544</v>
+        <v>2.145930035409407</v>
       </c>
       <c r="J23">
-        <v>0.9650208597700498</v>
+        <v>0.4376427379751249</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9554998269953501</v>
       </c>
       <c r="L23">
-        <v>1.818914430330196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.810022237243302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.464642148673477</v>
+        <v>2.442481293587775</v>
       </c>
       <c r="C24">
-        <v>1.045414765141288</v>
+        <v>1.032863847779311</v>
       </c>
       <c r="D24">
-        <v>0.01295160808619533</v>
+        <v>0.01517840777000679</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.627491671941698</v>
+        <v>3.63110096541314</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007618847394179618</v>
       </c>
       <c r="H24">
-        <v>1.86108670660775</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3680495733254148</v>
+        <v>1.869189632845888</v>
       </c>
       <c r="J24">
-        <v>0.8108793923466777</v>
+        <v>0.3669511272871517</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8028308343710933</v>
       </c>
       <c r="L24">
-        <v>1.522003444412135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.514852071462869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.983209574352571</v>
+        <v>1.965210366088257</v>
       </c>
       <c r="C25">
-        <v>0.8371732416115378</v>
+        <v>0.8270863306056526</v>
       </c>
       <c r="D25">
-        <v>0.01314228062587741</v>
+        <v>0.01540274222873039</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.013002644881254</v>
+        <v>3.02346008647757</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007780155288413234</v>
       </c>
       <c r="H25">
-        <v>1.579419111609937</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2969369597399663</v>
+        <v>1.59106330970819</v>
       </c>
       <c r="J25">
-        <v>0.6515061979356034</v>
+        <v>0.2959161546350657</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6449894303655341</v>
       </c>
       <c r="L25">
-        <v>1.218095575177443</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.21266693710318</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.625422147667706</v>
+        <v>1.896861752747412</v>
       </c>
       <c r="C2">
-        <v>0.6817185305440034</v>
+        <v>0.2973954750143264</v>
       </c>
       <c r="D2">
-        <v>0.01552314556364509</v>
+        <v>0.06468593896422803</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.601878399306855</v>
+        <v>2.2521765732521</v>
       </c>
       <c r="G2">
-        <v>0.0007901747534557821</v>
+        <v>0.0008143428012463777</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.399381904237956</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2468209347495574</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5328890891461313</v>
+        <v>0.4310581431877409</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1879929402333573</v>
       </c>
       <c r="M2">
-        <v>1.000017451997557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3524792606380558</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.847040968071042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.400332566990215</v>
+        <v>1.64418996710026</v>
       </c>
       <c r="C3">
-        <v>0.5859541457019475</v>
+        <v>0.2701364564329367</v>
       </c>
       <c r="D3">
-        <v>0.01557907282982951</v>
+        <v>0.0655378597260956</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.328524088506867</v>
+        <v>2.053203939603492</v>
       </c>
       <c r="G3">
-        <v>0.0007986400544065239</v>
+        <v>0.0008219906459312666</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.275811634247319</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2150294653017397</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4587582459901611</v>
+        <v>0.3718071333431325</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1724235107607441</v>
       </c>
       <c r="M3">
-        <v>0.8603703406005678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3085734477788904</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.695365853852806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.264100171068435</v>
+        <v>1.491408600361098</v>
       </c>
       <c r="C4">
-        <v>0.5282065769833366</v>
+        <v>0.2534554652674927</v>
       </c>
       <c r="D4">
-        <v>0.01560142937890596</v>
+        <v>0.06609530071149194</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.16570889027804</v>
+        <v>1.934708968151568</v>
       </c>
       <c r="G4">
-        <v>0.0008039626927172251</v>
+        <v>0.0008268164381235454</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.202538536989579</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1960939153584818</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4139431213136149</v>
+        <v>0.3358807859360908</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.163140507892706</v>
       </c>
       <c r="M4">
-        <v>0.7763572248490007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.2821019970160563</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.605235451092071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.209002855085231</v>
+        <v>1.429667775469881</v>
       </c>
       <c r="C5">
-        <v>0.5048979485459881</v>
+        <v>0.2466642668450021</v>
       </c>
       <c r="D5">
-        <v>0.01560762105324054</v>
+        <v>0.06633055242637553</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.100481158756125</v>
+        <v>1.8872574122759</v>
       </c>
       <c r="G5">
-        <v>0.0008061649912244684</v>
+        <v>0.0008288169800862999</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.173262567336167</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1885051825986714</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3958295818150717</v>
+        <v>0.3213375479070208</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.159421465991386</v>
       </c>
       <c r="M5">
-        <v>0.7424936817008714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.271423531666418</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.569190208259855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.199877123240299</v>
+        <v>1.419445022383655</v>
       </c>
       <c r="C6">
-        <v>0.5010399799261336</v>
+        <v>0.2455367704619817</v>
       </c>
       <c r="D6">
-        <v>0.01560847555812783</v>
+        <v>0.06637008927277321</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.089713894301141</v>
+        <v>1.879426167456984</v>
       </c>
       <c r="G6">
-        <v>0.0008065327430484128</v>
+        <v>0.0008291512581560878</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.168434612002784</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1872522595174928</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3928300865992611</v>
+        <v>0.3189280404584096</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1588076194733148</v>
       </c>
       <c r="M6">
-        <v>0.7368914398896038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2696565789459129</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.563244253145967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.26335551261019</v>
+        <v>1.490573935732471</v>
       </c>
       <c r="C7">
-        <v>0.5278913727422605</v>
+        <v>0.2533638603859742</v>
       </c>
       <c r="D7">
-        <v>0.01560152457891428</v>
+        <v>0.0660984413329011</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.164824848060874</v>
+        <v>1.934065746056092</v>
       </c>
       <c r="G7">
-        <v>0.0008039922565520982</v>
+        <v>0.0008268432788663575</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.202141437261716</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1959910783695769</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4136982669601039</v>
+        <v>0.3356842794745276</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1630901002910221</v>
       </c>
       <c r="M7">
-        <v>0.7758990997498643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.2819575598790465</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.604746653610377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.547352508021248</v>
+        <v>1.809203797759267</v>
       </c>
       <c r="C8">
-        <v>0.6484549204426173</v>
+        <v>0.2879800687229732</v>
       </c>
       <c r="D8">
-        <v>0.01554497479489481</v>
+        <v>0.06497220350541255</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.506492654091147</v>
+        <v>2.182752921356581</v>
       </c>
       <c r="G8">
-        <v>0.0007930688423152983</v>
+        <v>0.0008169536167561636</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.356191042083282</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2357256647440025</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5071658464009374</v>
+        <v>0.4105234038549099</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1825635930590295</v>
       </c>
       <c r="M8">
-        <v>0.9514682040390028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3372309675505392</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.794076878708353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.12387153887579</v>
+        <v>2.456487151241106</v>
       </c>
       <c r="C9">
-        <v>0.8952892694162244</v>
+        <v>0.3566946634419565</v>
       </c>
       <c r="D9">
-        <v>0.01533445027550373</v>
+        <v>0.0630638761579192</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.223584118712751</v>
+        <v>2.703949392910431</v>
       </c>
       <c r="G9">
-        <v>0.0007725451424264573</v>
+        <v>0.0007985269139711852</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.682446198033318</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3192692125471979</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6974120749433226</v>
+        <v>0.5617408899098777</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2232296998555086</v>
       </c>
       <c r="M9">
-        <v>1.312681801829626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.4501608613288823</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.192637246293231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.565652130252033</v>
+        <v>2.951525440971523</v>
       </c>
       <c r="C10">
-        <v>1.086267446674384</v>
+        <v>0.4082947971682529</v>
       </c>
       <c r="D10">
-        <v>0.0151121884678318</v>
+        <v>0.0618883659770475</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.790532931058095</v>
+        <v>3.114052847788713</v>
       </c>
       <c r="G10">
-        <v>0.0007578651350132513</v>
+        <v>0.0007854790819743348</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.94246456041283</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3856591223505177</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8436370931796375</v>
+        <v>0.6768916924384172</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2550551955083478</v>
       </c>
       <c r="M10">
-        <v>1.593474630001538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.5369459284302991</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.507491675470973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.772231662116042</v>
+        <v>3.182436045428688</v>
       </c>
       <c r="C11">
-        <v>1.176108017524143</v>
+        <v>0.4321685922214868</v>
       </c>
       <c r="D11">
-        <v>0.0149947112192903</v>
+        <v>0.06141423532246293</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.060153402481006</v>
+        <v>3.308232638810694</v>
       </c>
       <c r="G11">
-        <v>0.0007512347491231974</v>
+        <v>0.0007796247963793421</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.066630528989094</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4173734322536191</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9121420142343482</v>
+        <v>0.7304969782508124</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2700667414627844</v>
       </c>
       <c r="M11">
-        <v>1.725913023657441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.577521501602078</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.656881751262731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.851426184270679</v>
+        <v>3.270837580532259</v>
       </c>
       <c r="C12">
-        <v>1.210640129562194</v>
+        <v>0.4412817216235823</v>
       </c>
       <c r="D12">
-        <v>0.0149477146417305</v>
+        <v>0.06124454095125387</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.164229406071371</v>
+        <v>3.383021741537704</v>
       </c>
       <c r="G12">
-        <v>0.000748727076941271</v>
+        <v>0.0007774172702145949</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.114638340803637</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4296427488354695</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9384258675460586</v>
+        <v>0.7510040734113446</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2758383947154499</v>
       </c>
       <c r="M12">
-        <v>1.776874306737653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.5930693041896618</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.714467956619998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.83432438958539</v>
+        <v>3.251753605761508</v>
       </c>
       <c r="C13">
-        <v>1.203178774559319</v>
+        <v>0.4393155542970959</v>
       </c>
       <c r="D13">
-        <v>0.01495795052766535</v>
+        <v>0.06128062983118099</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.141721739357166</v>
+        <v>3.366855863705439</v>
       </c>
       <c r="G13">
-        <v>0.0007492670761468436</v>
+        <v>0.0007778923238566576</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.104252513051989</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4269880303068021</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.932748936557573</v>
+        <v>0.7465777007030994</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2745913144915164</v>
       </c>
       <c r="M13">
-        <v>1.765860519910731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.589712249392278</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.702018344292753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.7787266511952</v>
+        <v>3.189688782702547</v>
       </c>
       <c r="C14">
-        <v>1.178938209555724</v>
+        <v>0.4329167857131608</v>
       </c>
       <c r="D14">
-        <v>0.01499089605458348</v>
+        <v>0.061400070005174</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.068674353223059</v>
+        <v>3.314359387809304</v>
       </c>
       <c r="G14">
-        <v>0.0007510284024468845</v>
+        <v>0.0007794430085301218</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.070559447279663</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4183773630241276</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9142971812711949</v>
+        <v>0.732179743598742</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2705397696771854</v>
       </c>
       <c r="M14">
-        <v>1.730088572189487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.5787968126768348</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.661598254550071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.74480257774627</v>
+        <v>3.151801809649157</v>
       </c>
       <c r="C15">
-        <v>1.164159522996783</v>
+        <v>0.4290072956707434</v>
       </c>
       <c r="D15">
-        <v>0.01501074426404436</v>
+        <v>0.06147454956575515</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.024197549934371</v>
+        <v>3.282372659753207</v>
       </c>
       <c r="G15">
-        <v>0.0007521075504724947</v>
+        <v>0.0007803939936717361</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.050054855349259</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4131382843974549</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9030413902299443</v>
+        <v>0.7233886803755283</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2680697521839761</v>
       </c>
       <c r="M15">
-        <v>1.708286985693178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.5721353813955119</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.636976131189499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.552277768851184</v>
+        <v>2.936561385674224</v>
       </c>
       <c r="C16">
-        <v>1.080462787798666</v>
+        <v>0.4067438903980189</v>
       </c>
       <c r="D16">
-        <v>0.01511952347940415</v>
+        <v>0.06192066437646204</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.773172308350695</v>
+        <v>3.101529474988467</v>
       </c>
       <c r="G16">
-        <v>0.0007582990974499647</v>
+        <v>0.0007858631159145896</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.934480142033209</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3836204211514271</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8392047793102648</v>
+        <v>0.6734157202293005</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2540857561397303</v>
       </c>
       <c r="M16">
-        <v>1.584925060102847</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.5343183575964332</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.497863377731946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.435714168023594</v>
+        <v>2.806075798818597</v>
       </c>
       <c r="C17">
-        <v>1.029933331508914</v>
+        <v>0.3931987101089902</v>
       </c>
       <c r="D17">
-        <v>0.01518195712168513</v>
+        <v>0.06221062206588712</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.622371213519017</v>
+        <v>2.992649080124693</v>
       </c>
       <c r="G17">
-        <v>0.0007621071144648361</v>
+        <v>0.0007892374859944358</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.865180759998211</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3659276860188641</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8005897461318909</v>
+        <v>0.6430937138164055</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2456507698571357</v>
       </c>
       <c r="M17">
-        <v>1.510539934905083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.5114165939834052</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.414187583983065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.369187150053392</v>
+        <v>2.731552640055384</v>
       </c>
       <c r="C18">
-        <v>1.001143273876778</v>
+        <v>0.385444581346519</v>
       </c>
       <c r="D18">
-        <v>0.01521633683521717</v>
+        <v>0.06238302674879392</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.536717040148318</v>
+        <v>2.930730615219261</v>
       </c>
       <c r="G18">
-        <v>0.0007643021203784909</v>
+        <v>0.000791186134526529</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.82586557204192</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3558908319212009</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7785625099448836</v>
+        <v>0.6257662339084931</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2408487647699076</v>
       </c>
       <c r="M18">
-        <v>1.468189285117518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.4983456603741558</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.366630797002856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.346746575272903</v>
+        <v>2.706407220695269</v>
       </c>
       <c r="C19">
-        <v>0.9914399759746857</v>
+        <v>0.3828250436319394</v>
       </c>
       <c r="D19">
-        <v>0.0152277188632044</v>
+        <v>0.06244233483666761</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.507893726166373</v>
+        <v>2.909882844684461</v>
       </c>
       <c r="G19">
-        <v>0.0007650462303558163</v>
+        <v>0.0007918473193939637</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.812643529549192</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3525153137726988</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7711343166868616</v>
+        <v>0.6199179279121978</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2392311074719373</v>
       </c>
       <c r="M19">
-        <v>1.453920838974383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.4939367942156991</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.350623313573848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.448067937871542</v>
+        <v>2.819910541060267</v>
       </c>
       <c r="C20">
-        <v>1.035283431613664</v>
+        <v>0.3946367166820153</v>
       </c>
       <c r="D20">
-        <v>0.01517547043304468</v>
+        <v>0.06217916533890744</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.638310217518182</v>
+        <v>3.004165338986581</v>
       </c>
       <c r="G20">
-        <v>0.0007617012797617645</v>
+        <v>0.0007888774871618655</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.872500527359492</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3677963818900452</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8046810458262499</v>
+        <v>0.6463096344350845</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2465434865959537</v>
       </c>
       <c r="M20">
-        <v>1.518412571118745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.5138438434122605</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.423034997296497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.795029402775015</v>
+        <v>3.207891460889471</v>
       </c>
       <c r="C21">
-        <v>1.186043625419074</v>
+        <v>0.4347941578432</v>
       </c>
       <c r="D21">
-        <v>0.01498128862164361</v>
+        <v>0.0613647103915973</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.090073949208858</v>
+        <v>3.329743364790943</v>
       </c>
       <c r="G21">
-        <v>0.0007505110062855835</v>
+        <v>0.0007789873003998644</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.080427834472857</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.420899102942883</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9197071166784241</v>
+        <v>0.7364028532469717</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2717273542901069</v>
       </c>
       <c r="M21">
-        <v>1.740572517359254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.5819977677302219</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.673441946085489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.027519915910545</v>
+        <v>3.467136376357359</v>
       </c>
       <c r="C22">
-        <v>1.287604805035642</v>
+        <v>0.4614712729862447</v>
       </c>
       <c r="D22">
-        <v>0.01483966099712619</v>
+        <v>0.06089047323470353</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.397017698470506</v>
+        <v>3.549946335215623</v>
       </c>
       <c r="G22">
-        <v>0.0007432134952866097</v>
+        <v>0.0007725767962022644</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.222166712840519</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4571439908564372</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.99691276901207</v>
+        <v>0.7965139175340283</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2886998844924449</v>
       </c>
       <c r="M22">
-        <v>1.890564541537856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.6276191781535445</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.843087973832056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.902851409929553</v>
+        <v>3.328202570171754</v>
       </c>
       <c r="C23">
-        <v>1.233090623031671</v>
+        <v>0.4471881643297735</v>
       </c>
       <c r="D23">
-        <v>0.01491665341222159</v>
+        <v>0.06113785140550121</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.232017919833766</v>
+        <v>3.431682417612507</v>
       </c>
       <c r="G23">
-        <v>0.0007471082366582004</v>
+        <v>0.000775994164568847</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.145930035409407</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4376427379751249</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9554998269953501</v>
+        <v>0.7643072769701647</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2795906137413766</v>
       </c>
       <c r="M23">
-        <v>1.810022237243302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6031623724514645</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.751949534952487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.442481293587775</v>
+        <v>2.813654323354569</v>
       </c>
       <c r="C24">
-        <v>1.032863847779311</v>
+        <v>0.3939864916845437</v>
       </c>
       <c r="D24">
-        <v>0.01517840777000679</v>
+        <v>0.06219336924163343</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.63110096541314</v>
+        <v>2.998956737479944</v>
       </c>
       <c r="G24">
-        <v>0.0007618847394179618</v>
+        <v>0.0007890402155345215</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.869189632845888</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3669511272871517</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8028308343710933</v>
+        <v>0.6448553919067095</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2461397425422263</v>
       </c>
       <c r="M24">
-        <v>1.514852071462869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.5127461880397846</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.419033379622917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.965210366088257</v>
+        <v>2.278415288793894</v>
       </c>
       <c r="C25">
-        <v>0.8270863306056526</v>
+        <v>0.3379579135615387</v>
       </c>
       <c r="D25">
-        <v>0.01540274222873039</v>
+        <v>0.06354383091834848</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.02346008647757</v>
+        <v>2.558708947768324</v>
       </c>
       <c r="G25">
-        <v>0.0007780155288413234</v>
+        <v>0.000803417969159286</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.59106330970819</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2959161546350657</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6449894303655341</v>
+        <v>0.5202262570062359</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2119206000112825</v>
       </c>
       <c r="M25">
-        <v>1.21266693710318</v>
+        <v>0.4190227609753165</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.081371551940165</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.896861752747412</v>
+        <v>1.061132696416081</v>
       </c>
       <c r="C2">
-        <v>0.2973954750143264</v>
+        <v>0.1681186081654005</v>
       </c>
       <c r="D2">
-        <v>0.06468593896422803</v>
+        <v>0.1037075669414804</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.2521765732521</v>
+        <v>0.2676737988546201</v>
       </c>
       <c r="G2">
-        <v>0.0008143428012463777</v>
+        <v>0.0008037284285214634</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1615686341002327</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4310581431877409</v>
+        <v>1.153032231692833</v>
       </c>
       <c r="L2">
-        <v>0.1879929402333573</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3524792606380558</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.847040968071042</v>
+        <v>0.7493296691524307</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.64418996710026</v>
+        <v>0.9263356426465066</v>
       </c>
       <c r="C3">
-        <v>0.2701364564329367</v>
+        <v>0.1490639904257165</v>
       </c>
       <c r="D3">
-        <v>0.0655378597260956</v>
+        <v>0.09200134590429343</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.053203939603492</v>
+        <v>0.266148461365713</v>
       </c>
       <c r="G3">
-        <v>0.0008219906459312666</v>
+        <v>0.0008067501006392089</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1739764792721754</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3718071333431325</v>
+        <v>1.008935931117179</v>
       </c>
       <c r="L3">
-        <v>0.1724235107607441</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3085734477788904</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.695365853852806</v>
+        <v>0.7802853461031347</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.491408600361098</v>
+        <v>0.8434962538543118</v>
       </c>
       <c r="C4">
-        <v>0.2534554652674927</v>
+        <v>0.1373471164593667</v>
       </c>
       <c r="D4">
-        <v>0.06609530071149194</v>
+        <v>0.08479695491105588</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.934708968151568</v>
+        <v>0.2660543057591944</v>
       </c>
       <c r="G4">
-        <v>0.0008268164381235454</v>
+        <v>0.0008086661649667319</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1821796459300717</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3358807859360908</v>
+        <v>0.9203615094098154</v>
       </c>
       <c r="L4">
-        <v>0.163140507892706</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2821019970160563</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.605235451092071</v>
+        <v>0.8019781929392309</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.429667775469881</v>
+        <v>0.8097128199214296</v>
       </c>
       <c r="C5">
-        <v>0.2466642668450021</v>
+        <v>0.1325670281854059</v>
       </c>
       <c r="D5">
-        <v>0.06633055242637553</v>
+        <v>0.08185639112739551</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.8872574122759</v>
+        <v>0.2662188217279251</v>
       </c>
       <c r="G5">
-        <v>0.0008288169800862999</v>
+        <v>0.000809462481501072</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.185664654026918</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3213375479070208</v>
+        <v>0.8842341799374367</v>
       </c>
       <c r="L5">
-        <v>0.159421465991386</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.271423531666418</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.569190208259855</v>
+        <v>0.8114677675222879</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.419445022383655</v>
+        <v>0.804101350843041</v>
       </c>
       <c r="C6">
-        <v>0.2455367704619817</v>
+        <v>0.1317729453589891</v>
       </c>
       <c r="D6">
-        <v>0.06637008927277321</v>
+        <v>0.08136781360243361</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.879426167456984</v>
+        <v>0.2662581384066556</v>
       </c>
       <c r="G6">
-        <v>0.0008291512581560878</v>
+        <v>0.000809595652306758</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1862517835302766</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3189280404584096</v>
+        <v>0.8782330836006338</v>
       </c>
       <c r="L6">
-        <v>0.1588076194733148</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2696565789459129</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.563244253145967</v>
+        <v>0.8130820003886043</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.490573935732471</v>
+        <v>0.8430407519896903</v>
       </c>
       <c r="C7">
-        <v>0.2533638603859742</v>
+        <v>0.1372826735547505</v>
       </c>
       <c r="D7">
-        <v>0.0660984413329011</v>
+        <v>0.08475731718662161</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.934065746056092</v>
+        <v>0.2660557145657663</v>
       </c>
       <c r="G7">
-        <v>0.0008268432788663575</v>
+        <v>0.0008086768413132337</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1822260767076553</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3356842794745276</v>
+        <v>0.9198744251741857</v>
       </c>
       <c r="L7">
-        <v>0.1630901002910221</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2819575598790465</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.604746653610377</v>
+        <v>0.8021035759810218</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.809203797759267</v>
+        <v>1.014665378680149</v>
       </c>
       <c r="C8">
-        <v>0.2879800687229732</v>
+        <v>0.1615515136568888</v>
       </c>
       <c r="D8">
-        <v>0.06497220350541255</v>
+        <v>0.0996744126586151</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.182752921356581</v>
+        <v>0.2669675252175061</v>
       </c>
       <c r="G8">
-        <v>0.0008169536167561636</v>
+        <v>0.0008047578347015903</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1657225134621534</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4105234038549099</v>
+        <v>1.10336347802135</v>
       </c>
       <c r="L8">
-        <v>0.1825635930590295</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3372309675505392</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.794076878708353</v>
+        <v>0.7594298510018973</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.456487151241106</v>
+        <v>1.351003415580948</v>
       </c>
       <c r="C9">
-        <v>0.3566946634419565</v>
+        <v>0.2090577623721117</v>
       </c>
       <c r="D9">
-        <v>0.0630638761579192</v>
+        <v>0.1288200446186352</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.703949392910431</v>
+        <v>0.275861107185456</v>
       </c>
       <c r="G9">
-        <v>0.0007985269139711852</v>
+        <v>0.0007975437146688358</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1382265489623915</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5617408899098777</v>
+        <v>1.462791437624986</v>
       </c>
       <c r="L9">
-        <v>0.2232296998555086</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4501608613288823</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.192637246293231</v>
+        <v>0.6982729488709083</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.951525440971523</v>
+        <v>1.59854427486934</v>
       </c>
       <c r="C10">
-        <v>0.4082947971682529</v>
+        <v>0.2439899630731475</v>
       </c>
       <c r="D10">
-        <v>0.0618883659770475</v>
+        <v>0.1502086300254604</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.114052847788713</v>
+        <v>0.2873403616759092</v>
       </c>
       <c r="G10">
-        <v>0.0007854790819743348</v>
+        <v>0.0007925145698150466</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1213225055961278</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6768916924384172</v>
+        <v>1.72722723122439</v>
       </c>
       <c r="L10">
-        <v>0.2550551955083478</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5369459284302991</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.507491675470973</v>
+        <v>0.6688380698221437</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.182436045428688</v>
+        <v>1.711387431208777</v>
       </c>
       <c r="C11">
-        <v>0.4321685922214868</v>
+        <v>0.2599076040208814</v>
       </c>
       <c r="D11">
-        <v>0.06141423532246293</v>
+        <v>0.1599431710514665</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.308232638810694</v>
+        <v>0.2937797475496211</v>
       </c>
       <c r="G11">
-        <v>0.0007796247963793421</v>
+        <v>0.0007902818035722255</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1144253492617668</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7304969782508124</v>
+        <v>1.847750709225835</v>
       </c>
       <c r="L11">
-        <v>0.2700667414627844</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.577521501602078</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.656881751262731</v>
+        <v>0.6592254144415932</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.270837580532259</v>
+        <v>1.754163767938991</v>
       </c>
       <c r="C12">
-        <v>0.4412817216235823</v>
+        <v>0.2659407605721213</v>
       </c>
       <c r="D12">
-        <v>0.06124454095125387</v>
+        <v>0.1636308916006897</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.383021741537704</v>
+        <v>0.2964059168111675</v>
       </c>
       <c r="G12">
-        <v>0.0007774172702145949</v>
+        <v>0.0007894439035124244</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.111934398990126</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7510040734113446</v>
+        <v>1.893435451509333</v>
       </c>
       <c r="L12">
-        <v>0.2758383947154499</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5930693041896618</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.714467956619998</v>
+        <v>0.656165257894969</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.251753605761508</v>
+        <v>1.744948926159566</v>
       </c>
       <c r="C13">
-        <v>0.4393155542970959</v>
+        <v>0.2646411406804674</v>
       </c>
       <c r="D13">
-        <v>0.06128062983118099</v>
+        <v>0.1628365970806129</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.366855863705439</v>
+        <v>0.2958317661715313</v>
       </c>
       <c r="G13">
-        <v>0.0007778923238566576</v>
+        <v>0.00078962402739147</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1124653808453715</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7465777007030994</v>
+        <v>1.883594217649431</v>
       </c>
       <c r="L13">
-        <v>0.2745913144915164</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.589712249392278</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.702018344292753</v>
+        <v>0.6567979149226915</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.189688782702547</v>
+        <v>1.714905695540409</v>
       </c>
       <c r="C14">
-        <v>0.4329167857131608</v>
+        <v>0.2604038355489138</v>
       </c>
       <c r="D14">
-        <v>0.061400070005174</v>
+        <v>0.1602465281204957</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.314359387809304</v>
+        <v>0.2939919668761846</v>
       </c>
       <c r="G14">
-        <v>0.0007794430085301218</v>
+        <v>0.0007902127184465957</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1142179543585833</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.732179743598742</v>
+        <v>1.851508244352488</v>
       </c>
       <c r="L14">
-        <v>0.2705397696771854</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5787968126768348</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.661598254550071</v>
+        <v>0.6589618120421221</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.151801809649157</v>
+        <v>1.696509566952955</v>
       </c>
       <c r="C15">
-        <v>0.4290072956707434</v>
+        <v>0.2578091297267662</v>
       </c>
       <c r="D15">
-        <v>0.06147454956575515</v>
+        <v>0.1586602503256671</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.282372659753207</v>
+        <v>0.292889870783668</v>
       </c>
       <c r="G15">
-        <v>0.0007803939936717361</v>
+        <v>0.0007905742890189956</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.115307405962513</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7233886803755283</v>
+        <v>1.831860906093169</v>
       </c>
       <c r="L15">
-        <v>0.2680697521839761</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5721353813955119</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.636976131189499</v>
+        <v>0.6603639165717681</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.936561385674224</v>
+        <v>1.591175389131109</v>
       </c>
       <c r="C16">
-        <v>0.4067438903980189</v>
+        <v>0.2429503842093084</v>
       </c>
       <c r="D16">
-        <v>0.06192066437646204</v>
+        <v>0.1495726158747175</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.101529474988467</v>
+        <v>0.2869450947399201</v>
       </c>
       <c r="G16">
-        <v>0.0007858631159145896</v>
+        <v>0.0007926615671543254</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1217897789024214</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6734157202293005</v>
+        <v>1.71935637849225</v>
       </c>
       <c r="L16">
-        <v>0.2540857561397303</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5343183575964332</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.497863377731946</v>
+        <v>0.6695453832381304</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.806075798818597</v>
+        <v>1.526624339217165</v>
       </c>
       <c r="C17">
-        <v>0.3931987101089902</v>
+        <v>0.23384301539798</v>
       </c>
       <c r="D17">
-        <v>0.06221062206588712</v>
+        <v>0.1439994023517954</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.992649080124693</v>
+        <v>0.2836187462436328</v>
       </c>
       <c r="G17">
-        <v>0.0007892374859944358</v>
+        <v>0.0007939559199575882</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1259742753716129</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6430937138164055</v>
+        <v>1.650405743408101</v>
       </c>
       <c r="L17">
-        <v>0.2456507698571357</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5114165939834052</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.414187583983065</v>
+        <v>0.6761708739811496</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.731552640055384</v>
+        <v>1.489517737665011</v>
       </c>
       <c r="C18">
-        <v>0.385444581346519</v>
+        <v>0.2286071155098028</v>
       </c>
       <c r="D18">
-        <v>0.06238302674879392</v>
+        <v>0.1407942363511836</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.930730615219261</v>
+        <v>0.2818193073694673</v>
       </c>
       <c r="G18">
-        <v>0.000791186134526529</v>
+        <v>0.0007947055955502933</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1284552534192418</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6257662339084931</v>
+        <v>1.610768069402667</v>
       </c>
       <c r="L18">
-        <v>0.2408487647699076</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4983456603741558</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.366630797002856</v>
+        <v>0.6803349026212686</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.706407220695269</v>
+        <v>1.476957436598951</v>
       </c>
       <c r="C19">
-        <v>0.3828250436319394</v>
+        <v>0.2268346972456214</v>
       </c>
       <c r="D19">
-        <v>0.06244233483666761</v>
+        <v>0.1397090679820678</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.909882844684461</v>
+        <v>0.2812292181466276</v>
       </c>
       <c r="G19">
-        <v>0.0007918473193939637</v>
+        <v>0.0007949603247327341</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1293078048366407</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6199179279121978</v>
+        <v>1.597350673676345</v>
       </c>
       <c r="L19">
-        <v>0.2392311074719373</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4939367942156991</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.350623313573848</v>
+        <v>0.6818043527120352</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.819910541060267</v>
+        <v>1.533493609564744</v>
       </c>
       <c r="C20">
-        <v>0.3946367166820153</v>
+        <v>0.2348122486787361</v>
       </c>
       <c r="D20">
-        <v>0.06217916533890744</v>
+        <v>0.1445926337005687</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.004165338986581</v>
+        <v>0.2839609757304231</v>
       </c>
       <c r="G20">
-        <v>0.0007888774871618655</v>
+        <v>0.0007938175981813234</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1255211040576043</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6463096344350845</v>
+        <v>1.657743408250127</v>
       </c>
       <c r="L20">
-        <v>0.2465434865959537</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5138438434122605</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.423034997296497</v>
+        <v>0.6754287627843638</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.207891460889471</v>
+        <v>1.723728803714437</v>
       </c>
       <c r="C21">
-        <v>0.4347941578432</v>
+        <v>0.2616482720577267</v>
       </c>
       <c r="D21">
-        <v>0.0613647103915973</v>
+        <v>0.1610072480514475</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.329743364790943</v>
+        <v>0.2945271614808291</v>
       </c>
       <c r="G21">
-        <v>0.0007789873003998644</v>
+        <v>0.0007900396019259937</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1136998442770256</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7364028532469717</v>
+        <v>1.860931347967181</v>
       </c>
       <c r="L21">
-        <v>0.2717273542901069</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5819977677302219</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.673441946085489</v>
+        <v>0.6583101794086872</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.467136376357359</v>
+        <v>1.848327073237243</v>
       </c>
       <c r="C22">
-        <v>0.4614712729862447</v>
+        <v>0.2792200268422249</v>
       </c>
       <c r="D22">
-        <v>0.06089047323470353</v>
+        <v>0.1717440634283633</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.549946335215623</v>
+        <v>0.3025333334461138</v>
       </c>
       <c r="G22">
-        <v>0.0007725767962022644</v>
+        <v>0.0007876146058448941</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1066818796241957</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7965139175340283</v>
+        <v>1.993995605797295</v>
       </c>
       <c r="L22">
-        <v>0.2886998844924449</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6276191781535445</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.843087973832056</v>
+        <v>0.6505212572197223</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.328202570171754</v>
+        <v>1.781798138273899</v>
       </c>
       <c r="C23">
-        <v>0.4471881643297735</v>
+        <v>0.2698380687315023</v>
       </c>
       <c r="D23">
-        <v>0.06113785140550121</v>
+        <v>0.1660125365805243</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.431682417612507</v>
+        <v>0.2981552090677511</v>
       </c>
       <c r="G23">
-        <v>0.000775994164568847</v>
+        <v>0.0007889049402710931</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1103603455322499</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7643072769701647</v>
+        <v>1.922947876259371</v>
       </c>
       <c r="L23">
-        <v>0.2795906137413766</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6031623724514645</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.751949534952487</v>
+        <v>0.6543546042793338</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.813654323354569</v>
+        <v>1.53038799877254</v>
       </c>
       <c r="C24">
-        <v>0.3939864916845437</v>
+        <v>0.2343740582854679</v>
       </c>
       <c r="D24">
-        <v>0.06219336924163343</v>
+        <v>0.1443244371403836</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.998956737479944</v>
+        <v>0.2838059029969884</v>
       </c>
       <c r="G24">
-        <v>0.0007890402155345215</v>
+        <v>0.0007938801161784149</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1257257489210897</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6448553919067095</v>
+        <v>1.65442604163735</v>
       </c>
       <c r="L24">
-        <v>0.2461397425422263</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5127461880397846</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.419033379622917</v>
+        <v>0.6757631684340595</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.278415288793894</v>
+        <v>1.259982244167276</v>
       </c>
       <c r="C25">
-        <v>0.3379579135615387</v>
+        <v>0.1962071366701537</v>
       </c>
       <c r="D25">
-        <v>0.06354383091834848</v>
+        <v>0.120942795759035</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.558708947768324</v>
+        <v>0.272633103774595</v>
       </c>
       <c r="G25">
-        <v>0.000803417969159286</v>
+        <v>0.0007994465123053107</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1451108351152062</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5202262570062359</v>
+        <v>1.365538942195144</v>
       </c>
       <c r="L25">
-        <v>0.2119206000112825</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4190227609753165</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.081371551940165</v>
+        <v>0.7122295669972516</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.061132696416081</v>
+        <v>0.3526955397180132</v>
       </c>
       <c r="C2">
-        <v>0.1681186081654005</v>
+        <v>0.05690361649790532</v>
       </c>
       <c r="D2">
-        <v>0.1037075669414804</v>
+        <v>0.03952669602465164</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2676737988546201</v>
+        <v>0.5483759910908077</v>
       </c>
       <c r="G2">
-        <v>0.0008037284285214634</v>
+        <v>0.00241806525062455</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1615686341002327</v>
+        <v>0.4321961231861984</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.153032231692833</v>
+        <v>0.3680121638104197</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7493296691524307</v>
+        <v>1.873059458402409</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9263356426465066</v>
+        <v>0.309473145758659</v>
       </c>
       <c r="C3">
-        <v>0.1490639904257165</v>
+        <v>0.05062018966762594</v>
       </c>
       <c r="D3">
-        <v>0.09200134590429343</v>
+        <v>0.03559526125344092</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.266148461365713</v>
+        <v>0.5541085910162593</v>
       </c>
       <c r="G3">
-        <v>0.0008067501006392089</v>
+        <v>0.002420013975505897</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1739764792721754</v>
+        <v>0.4398941665911176</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.008935931117179</v>
+        <v>0.321424272746242</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7802853461031347</v>
+        <v>1.901566441684764</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8434962538543118</v>
+        <v>0.2828593938265271</v>
       </c>
       <c r="C4">
-        <v>0.1373471164593667</v>
+        <v>0.04674115438550075</v>
       </c>
       <c r="D4">
-        <v>0.08479695491105588</v>
+        <v>0.03316648821292745</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2660543057591944</v>
+        <v>0.5580507679845432</v>
       </c>
       <c r="G4">
-        <v>0.0008086661649667319</v>
+        <v>0.002421274016293502</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1821796459300717</v>
+        <v>0.444917987401376</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9203615094098154</v>
+        <v>0.2927158334687192</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8019781929392309</v>
+        <v>1.920426036625194</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8097128199214296</v>
+        <v>0.2719959787576443</v>
       </c>
       <c r="C5">
-        <v>0.1325670281854059</v>
+        <v>0.04515524375150903</v>
       </c>
       <c r="D5">
-        <v>0.08185639112739551</v>
+        <v>0.03217306924030083</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2662188217279251</v>
+        <v>0.559763372513526</v>
       </c>
       <c r="G5">
-        <v>0.000809462481501072</v>
+        <v>0.002421803510031519</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.185664654026918</v>
+        <v>0.4470399074638713</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8842341799374367</v>
+        <v>0.2809917508248816</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8114677675222879</v>
+        <v>1.928452215908884</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.804101350843041</v>
+        <v>0.2701910468074686</v>
       </c>
       <c r="C6">
-        <v>0.1317729453589891</v>
+        <v>0.04489159519897612</v>
       </c>
       <c r="D6">
-        <v>0.08136781360243361</v>
+        <v>0.03200789267317816</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2662581384066556</v>
+        <v>0.5600541575951006</v>
       </c>
       <c r="G6">
-        <v>0.000809595652306758</v>
+        <v>0.002421892400472025</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1862517835302766</v>
+        <v>0.4473967589679946</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8782330836006338</v>
+        <v>0.279043480134078</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8130820003886043</v>
+        <v>1.929805528431899</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8430407519896903</v>
+        <v>0.2827129582536543</v>
       </c>
       <c r="C7">
-        <v>0.1372826735547505</v>
+        <v>0.04671978704108426</v>
       </c>
       <c r="D7">
-        <v>0.08475731718662161</v>
+        <v>0.03315310541189831</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2660557145657663</v>
+        <v>0.5580734351158085</v>
       </c>
       <c r="G7">
-        <v>0.0008086768413132337</v>
+        <v>0.002421281092272241</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1822260767076553</v>
+        <v>0.4449463020898783</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9198744251741857</v>
+        <v>0.2925578191864702</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8021035759810218</v>
+        <v>1.920532901214479</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.014665378680149</v>
+        <v>0.3378084790497553</v>
       </c>
       <c r="C8">
-        <v>0.1615515136568888</v>
+        <v>0.0547415074443478</v>
       </c>
       <c r="D8">
-        <v>0.0996744126586151</v>
+        <v>0.03817425643644867</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2669675252175061</v>
+        <v>0.5502648964414938</v>
       </c>
       <c r="G8">
-        <v>0.0008047578347015903</v>
+        <v>0.00241872401534508</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1657225134621534</v>
+        <v>0.4347886921067534</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.10336347802135</v>
+        <v>0.351970568067685</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7594298510018973</v>
+        <v>1.882607020216284</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.351003415580948</v>
+        <v>0.4452265749382605</v>
       </c>
       <c r="C9">
-        <v>0.2090577623721117</v>
+        <v>0.07030168481398391</v>
       </c>
       <c r="D9">
-        <v>0.1288200446186352</v>
+        <v>0.04790058199415625</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.275861107185456</v>
+        <v>0.5383065670577025</v>
       </c>
       <c r="G9">
-        <v>0.0007975437146688358</v>
+        <v>0.002414211500156744</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1382265489623915</v>
+        <v>0.417230093500768</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.462791437624986</v>
+        <v>0.4676290922759279</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6982729488709083</v>
+        <v>1.819007528041823</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.59854427486934</v>
+        <v>0.523735132946058</v>
       </c>
       <c r="C10">
-        <v>0.2439899630731475</v>
+        <v>0.08162572520146227</v>
       </c>
       <c r="D10">
-        <v>0.1502086300254604</v>
+        <v>0.05497088896808577</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2873403616759092</v>
+        <v>0.5315702295835507</v>
       </c>
       <c r="G10">
-        <v>0.0007925145698150466</v>
+        <v>0.002411199224286261</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1213225055961278</v>
+        <v>0.4057716437176779</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.72722723122439</v>
+        <v>0.552052935002564</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6688380698221437</v>
+        <v>1.778864709534048</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.711387431208777</v>
+        <v>0.5593552471593739</v>
       </c>
       <c r="C11">
-        <v>0.2599076040208814</v>
+        <v>0.08675305815629031</v>
       </c>
       <c r="D11">
-        <v>0.1599431710514665</v>
+        <v>0.05817046678798476</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2937797475496211</v>
+        <v>0.5289517206189345</v>
       </c>
       <c r="G11">
-        <v>0.0007902818035722255</v>
+        <v>0.002409894052756857</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1144253492617668</v>
+        <v>0.4008725796245027</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.847750709225835</v>
+        <v>0.5903336277911819</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6592254144415932</v>
+        <v>1.762035734549073</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.754163767938991</v>
+        <v>0.572829486616115</v>
       </c>
       <c r="C12">
-        <v>0.2659407605721213</v>
+        <v>0.08869109858098057</v>
       </c>
       <c r="D12">
-        <v>0.1636308916006897</v>
+        <v>0.05937960223572247</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2964059168111675</v>
+        <v>0.528024354395022</v>
       </c>
       <c r="G12">
-        <v>0.0007894439035124244</v>
+        <v>0.002409409137242318</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.111934398990126</v>
+        <v>0.3990625659883982</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.893435451509333</v>
+        <v>0.6048109659595582</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.656165257894969</v>
+        <v>1.75586929853732</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.744948926159566</v>
+        <v>0.5699282183960577</v>
       </c>
       <c r="C13">
-        <v>0.2646411406804674</v>
+        <v>0.08827386745318222</v>
       </c>
       <c r="D13">
-        <v>0.1628365970806129</v>
+        <v>0.05911930445067526</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2958317661715313</v>
+        <v>0.5282212223177609</v>
       </c>
       <c r="G13">
-        <v>0.00078962402739147</v>
+        <v>0.00240951315822127</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1124653808453715</v>
+        <v>0.399450375184502</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.883594217649431</v>
+        <v>0.6016938591045289</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6567979149226915</v>
+        <v>1.757188168132615</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.714905695540409</v>
+        <v>0.5604640728001584</v>
       </c>
       <c r="C14">
-        <v>0.2604038355489138</v>
+        <v>0.0869125740930059</v>
       </c>
       <c r="D14">
-        <v>0.1602465281204957</v>
+        <v>0.05826999308541758</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2939919668761846</v>
+        <v>0.5288741383497779</v>
       </c>
       <c r="G14">
-        <v>0.0007902127184465957</v>
+        <v>0.002409853971796759</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1142179543585833</v>
+        <v>0.4007227632533734</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.851508244352488</v>
+        <v>0.5915250675027437</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6589618120421221</v>
+        <v>1.761524280767105</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.696509566952955</v>
+        <v>0.5546651201696591</v>
       </c>
       <c r="C15">
-        <v>0.2578091297267662</v>
+        <v>0.08607827440593496</v>
       </c>
       <c r="D15">
-        <v>0.1586602503256671</v>
+        <v>0.05774944098594403</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.292889870783668</v>
+        <v>0.5292824324301151</v>
       </c>
       <c r="G15">
-        <v>0.0007905742890189956</v>
+        <v>0.002410063943249845</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.115307405962513</v>
+        <v>0.401508020736312</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.831860906093169</v>
+        <v>0.5852939238830572</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6603639165717681</v>
+        <v>1.764207156760989</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.591175389131109</v>
+        <v>0.5214053154722365</v>
       </c>
       <c r="C16">
-        <v>0.2429503842093084</v>
+        <v>0.08129014865322404</v>
       </c>
       <c r="D16">
-        <v>0.1495726158747175</v>
+        <v>0.05476144636054414</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2869450947399201</v>
+        <v>0.5317503352530792</v>
       </c>
       <c r="G16">
-        <v>0.0007926615671543254</v>
+        <v>0.002411285827473083</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1217897789024214</v>
+        <v>0.4060981234395111</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.71935637849225</v>
+        <v>0.5495486285699087</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6695453832381304</v>
+        <v>1.77999337491228</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.526624339217165</v>
+        <v>0.5009768786243285</v>
       </c>
       <c r="C17">
-        <v>0.23384301539798</v>
+        <v>0.07834655284366931</v>
       </c>
       <c r="D17">
-        <v>0.1439994023517954</v>
+        <v>0.05292407243469199</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2836187462436328</v>
+        <v>0.5333785790102397</v>
       </c>
       <c r="G17">
-        <v>0.0007939559199575882</v>
+        <v>0.002412052065441793</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1259742753716129</v>
+        <v>0.4089943420083042</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.650405743408101</v>
+        <v>0.5275876271094546</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6761708739811496</v>
+        <v>1.790044801754675</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.489517737665011</v>
+        <v>0.4892182006506403</v>
       </c>
       <c r="C18">
-        <v>0.2286071155098028</v>
+        <v>0.07665121936516073</v>
       </c>
       <c r="D18">
-        <v>0.1407942363511836</v>
+        <v>0.05186569193196533</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2818193073694673</v>
+        <v>0.534357065336927</v>
       </c>
       <c r="G18">
-        <v>0.0007947055955502933</v>
+        <v>0.002412498917762363</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1284552534192418</v>
+        <v>0.4106896680488408</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.610768069402667</v>
+        <v>0.5149446079054485</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6803349026212686</v>
+        <v>1.795960898789332</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.476957436598951</v>
+        <v>0.4852354315491425</v>
       </c>
       <c r="C19">
-        <v>0.2268346972456214</v>
+        <v>0.07607682475345712</v>
       </c>
       <c r="D19">
-        <v>0.1397090679820678</v>
+        <v>0.05150707462676962</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2812292181466276</v>
+        <v>0.5346955685554278</v>
       </c>
       <c r="G19">
-        <v>0.0007949603247327341</v>
+        <v>0.002412651269061754</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1293078048366407</v>
+        <v>0.4112687400440134</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.597350673676345</v>
+        <v>0.5106619278566598</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6818043527120352</v>
+        <v>1.79798712482139</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.533493609564744</v>
+        <v>0.5031524354886869</v>
       </c>
       <c r="C20">
-        <v>0.2348122486787361</v>
+        <v>0.07866013785528025</v>
       </c>
       <c r="D20">
-        <v>0.1445926337005687</v>
+        <v>0.05311982717525154</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2839609757304231</v>
+        <v>0.5332009059630067</v>
       </c>
       <c r="G20">
-        <v>0.0007938175981813234</v>
+        <v>0.002411969863894194</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1255211040576043</v>
+        <v>0.4086829810916246</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.657743408250127</v>
+        <v>0.5299266234494837</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6754287627843638</v>
+        <v>1.788960857971261</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.723728803714437</v>
+        <v>0.5632443171712112</v>
       </c>
       <c r="C21">
-        <v>0.2616482720577267</v>
+        <v>0.08731251672504925</v>
       </c>
       <c r="D21">
-        <v>0.1610072480514475</v>
+        <v>0.05851952413937056</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2945271614808291</v>
+        <v>0.5286806178454313</v>
       </c>
       <c r="G21">
-        <v>0.0007900396019259937</v>
+        <v>0.002409753613911803</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1136998442770256</v>
+        <v>0.4003478058642624</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.860931347967181</v>
+        <v>0.5945124033890181</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6583101794086872</v>
+        <v>1.760245056553757</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.848327073237243</v>
+        <v>0.6024339554845426</v>
       </c>
       <c r="C22">
-        <v>0.2792200268422249</v>
+        <v>0.09294648945174799</v>
       </c>
       <c r="D22">
-        <v>0.1717440634283633</v>
+        <v>0.06203407921121595</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3025333334461138</v>
+        <v>0.526100631685523</v>
       </c>
       <c r="G22">
-        <v>0.0007876146058448941</v>
+        <v>0.002408359498171645</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1066818796241957</v>
+        <v>0.3951635267502223</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.993995605797295</v>
+        <v>0.6366133693288134</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.6505212572197223</v>
+        <v>1.742680454706431</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.781798138273899</v>
+        <v>0.5815256575521914</v>
       </c>
       <c r="C23">
-        <v>0.2698380687315023</v>
+        <v>0.08994147809048059</v>
       </c>
       <c r="D23">
-        <v>0.1660125365805243</v>
+        <v>0.06015964047116995</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2981552090677511</v>
+        <v>0.5274433430157828</v>
       </c>
       <c r="G23">
-        <v>0.0007889049402710931</v>
+        <v>0.002409098605967395</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1103603455322499</v>
+        <v>0.3979063602920849</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.922947876259371</v>
+        <v>0.6141536071029918</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.6543546042793338</v>
+        <v>1.75194482780131</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.53038799877254</v>
+        <v>0.5021689100794049</v>
       </c>
       <c r="C24">
-        <v>0.2343740582854679</v>
+        <v>0.07851837547450202</v>
       </c>
       <c r="D24">
-        <v>0.1443244371403836</v>
+        <v>0.05303133283706529</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2838059029969884</v>
+        <v>0.533281099922327</v>
       </c>
       <c r="G24">
-        <v>0.0007938801161784149</v>
+        <v>0.002412007007345725</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1257257489210897</v>
+        <v>0.4088236531379632</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.65442604163735</v>
+        <v>0.5288692171714615</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6757631684340595</v>
+        <v>1.78945048100276</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.259982244167276</v>
+        <v>0.4162371674662779</v>
       </c>
       <c r="C25">
-        <v>0.1962071366701537</v>
+        <v>0.06611091661703483</v>
       </c>
       <c r="D25">
-        <v>0.120942795759035</v>
+        <v>0.04528246175149775</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.272633103774595</v>
+        <v>0.5411820379057133</v>
       </c>
       <c r="G25">
-        <v>0.0007994465123053107</v>
+        <v>0.002415378823893266</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1451108351152062</v>
+        <v>0.4217271611563707</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.365538942195144</v>
+        <v>0.436434732734341</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7122295669972516</v>
+        <v>1.835057865033662</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3526955397180132</v>
+        <v>1.061132696416053</v>
       </c>
       <c r="C2">
-        <v>0.05690361649790532</v>
+        <v>0.1681186081651589</v>
       </c>
       <c r="D2">
-        <v>0.03952669602465164</v>
+        <v>0.1037075669414662</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5483759910908077</v>
+        <v>0.267673798854652</v>
       </c>
       <c r="G2">
-        <v>0.00241806525062455</v>
+        <v>0.0008037284284626153</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4321961231861984</v>
+        <v>0.1615686341002309</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3680121638104197</v>
+        <v>1.15303223169272</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.873059458402409</v>
+        <v>0.7493296691524307</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.309473145758659</v>
+        <v>0.9263356426465066</v>
       </c>
       <c r="C3">
-        <v>0.05062018966762594</v>
+        <v>0.1490639904257733</v>
       </c>
       <c r="D3">
-        <v>0.03559526125344092</v>
+        <v>0.09200134590400921</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5541085910162593</v>
+        <v>0.2661484613657414</v>
       </c>
       <c r="G3">
-        <v>0.002420013975505897</v>
+        <v>0.0008067501006617187</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4398941665911176</v>
+        <v>0.1739764792721754</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.321424272746242</v>
+        <v>1.008935931117236</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.901566441684764</v>
+        <v>0.7802853461031205</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2828593938265271</v>
+        <v>0.8434962538543402</v>
       </c>
       <c r="C4">
-        <v>0.04674115438550075</v>
+        <v>0.1373471164596225</v>
       </c>
       <c r="D4">
-        <v>0.03316648821292745</v>
+        <v>0.08479695491106298</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5580507679845432</v>
+        <v>0.2660543057591624</v>
       </c>
       <c r="G4">
-        <v>0.002421274016293502</v>
+        <v>0.0008086661649463966</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.444917987401376</v>
+        <v>0.1821796459300664</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2927158334687192</v>
+        <v>0.9203615094098438</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.920426036625194</v>
+        <v>0.8019781929392167</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2719959787576443</v>
+        <v>0.8097128199214012</v>
       </c>
       <c r="C5">
-        <v>0.04515524375150903</v>
+        <v>0.132567028185548</v>
       </c>
       <c r="D5">
-        <v>0.03217306924030083</v>
+        <v>0.08185639112740972</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.559763372513526</v>
+        <v>0.2662188217279216</v>
       </c>
       <c r="G5">
-        <v>0.002421803510031519</v>
+        <v>0.0008094624814899355</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4470399074638713</v>
+        <v>0.1856646540269127</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2809917508248816</v>
+        <v>0.8842341799374651</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.928452215908884</v>
+        <v>0.8114677675222879</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2701910468074686</v>
+        <v>0.804101350843041</v>
       </c>
       <c r="C6">
-        <v>0.04489159519897612</v>
+        <v>0.1317729453589891</v>
       </c>
       <c r="D6">
-        <v>0.03200789267317816</v>
+        <v>0.08136781360234124</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5600541575951006</v>
+        <v>0.2662581384066165</v>
       </c>
       <c r="G6">
-        <v>0.002421892400472025</v>
+        <v>0.0008095956522965269</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4473967589679946</v>
+        <v>0.1862517835302677</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.279043480134078</v>
+        <v>0.8782330836007191</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.929805528431899</v>
+        <v>0.8130820003885617</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2827129582536543</v>
+        <v>0.8430407519896335</v>
       </c>
       <c r="C7">
-        <v>0.04671978704108426</v>
+        <v>0.1372826735550348</v>
       </c>
       <c r="D7">
-        <v>0.03315310541189831</v>
+        <v>0.08475731718663582</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5580734351158085</v>
+        <v>0.2660557145657663</v>
       </c>
       <c r="G7">
-        <v>0.002421281092272241</v>
+        <v>0.0008086768413016082</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4449463020898783</v>
+        <v>0.1822260767076722</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2925578191864702</v>
+        <v>0.9198744251741857</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.920532901214479</v>
+        <v>0.8021035759810715</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3378084790497553</v>
+        <v>1.014665378680149</v>
       </c>
       <c r="C8">
-        <v>0.0547415074443478</v>
+        <v>0.1615515136566472</v>
       </c>
       <c r="D8">
-        <v>0.03817425643644867</v>
+        <v>0.0996744126586151</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5502648964414938</v>
+        <v>0.266967525217531</v>
       </c>
       <c r="G8">
-        <v>0.00241872401534508</v>
+        <v>0.0008047578347472775</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4347886921067534</v>
+        <v>0.1657225134621516</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.351970568067685</v>
+        <v>1.103363478021379</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.882607020216284</v>
+        <v>0.7594298510019541</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4452265749382605</v>
+        <v>1.351003415580919</v>
       </c>
       <c r="C9">
-        <v>0.07030168481398391</v>
+        <v>0.2090577623723533</v>
       </c>
       <c r="D9">
-        <v>0.04790058199415625</v>
+        <v>0.1288200446186352</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5383065670577025</v>
+        <v>0.2758611071854489</v>
       </c>
       <c r="G9">
-        <v>0.002414211500156744</v>
+        <v>0.0007975437147248042</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.417230093500768</v>
+        <v>0.1382265489624004</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4676290922759279</v>
+        <v>1.462791437625043</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.819007528041823</v>
+        <v>0.6982729488709367</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.523735132946058</v>
+        <v>1.598544274869454</v>
       </c>
       <c r="C10">
-        <v>0.08162572520146227</v>
+        <v>0.2439899630733748</v>
       </c>
       <c r="D10">
-        <v>0.05497088896808577</v>
+        <v>0.1502086300254462</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5315702295835507</v>
+        <v>0.2873403616758949</v>
       </c>
       <c r="G10">
-        <v>0.002411199224286261</v>
+        <v>0.0007925145697555537</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4057716437176779</v>
+        <v>0.121322505596142</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.552052935002564</v>
+        <v>1.727227231224305</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.778864709534048</v>
+        <v>0.668838069822101</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5593552471593739</v>
+        <v>1.711387431208749</v>
       </c>
       <c r="C11">
-        <v>0.08675305815629031</v>
+        <v>0.2599076040206398</v>
       </c>
       <c r="D11">
-        <v>0.05817046678798476</v>
+        <v>0.1599431710515375</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5289517206189345</v>
+        <v>0.2937797475496282</v>
       </c>
       <c r="G11">
-        <v>0.002409894052756857</v>
+        <v>0.0007902818034413999</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4008725796245027</v>
+        <v>0.1144253492617864</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5903336277911819</v>
+        <v>1.847750709226005</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.762035734549073</v>
+        <v>0.6592254144416785</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.572829486616115</v>
+        <v>1.754163767939104</v>
       </c>
       <c r="C12">
-        <v>0.08869109858098057</v>
+        <v>0.2659407605718656</v>
       </c>
       <c r="D12">
-        <v>0.05937960223572247</v>
+        <v>0.1636308916008318</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.528024354395022</v>
+        <v>0.2964059168111817</v>
       </c>
       <c r="G12">
-        <v>0.002409409137242318</v>
+        <v>0.0007894439036272397</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3990625659883982</v>
+        <v>0.1119343989901367</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6048109659595582</v>
+        <v>1.893435451509305</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.75586929853732</v>
+        <v>0.6561652578949122</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5699282183960577</v>
+        <v>1.74494892615968</v>
       </c>
       <c r="C13">
-        <v>0.08827386745318222</v>
+        <v>0.2646411406803253</v>
       </c>
       <c r="D13">
-        <v>0.05911930445067526</v>
+        <v>0.1628365970803571</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5282212223177609</v>
+        <v>0.2958317661715242</v>
       </c>
       <c r="G13">
-        <v>0.00240951315822127</v>
+        <v>0.0007896240274360894</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.399450375184502</v>
+        <v>0.1124653808453537</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6016938591045289</v>
+        <v>1.883594217649375</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.757188168132615</v>
+        <v>0.6567979149226204</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5604640728001584</v>
+        <v>1.714905695540494</v>
       </c>
       <c r="C14">
-        <v>0.0869125740930059</v>
+        <v>0.2604038355495391</v>
       </c>
       <c r="D14">
-        <v>0.05826999308541758</v>
+        <v>0.1602465281204815</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5288741383497779</v>
+        <v>0.2939919668762059</v>
       </c>
       <c r="G14">
-        <v>0.002409853971796759</v>
+        <v>0.0007902127185037063</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4007227632533734</v>
+        <v>0.1142179543585922</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5915250675027437</v>
+        <v>1.851508244352488</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.761524280767105</v>
+        <v>0.6589618120421079</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5546651201696591</v>
+        <v>1.696509566953011</v>
       </c>
       <c r="C15">
-        <v>0.08607827440593496</v>
+        <v>0.2578091297267804</v>
       </c>
       <c r="D15">
-        <v>0.05774944098594403</v>
+        <v>0.1586602503256671</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5292824324301151</v>
+        <v>0.2928898707836822</v>
       </c>
       <c r="G15">
-        <v>0.002410063943249845</v>
+        <v>0.0007905742890175482</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.401508020736312</v>
+        <v>0.1153074059625094</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5852939238830572</v>
+        <v>1.831860906093198</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.764207156760989</v>
+        <v>0.6603639165718249</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5214053154722365</v>
+        <v>1.591175389131223</v>
       </c>
       <c r="C16">
-        <v>0.08129014865322404</v>
+        <v>0.2429503842092799</v>
       </c>
       <c r="D16">
-        <v>0.05476144636054414</v>
+        <v>0.1495726158745896</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5317503352530792</v>
+        <v>0.286945094739913</v>
       </c>
       <c r="G16">
-        <v>0.002411285827473083</v>
+        <v>0.0007926615672119641</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4060981234395111</v>
+        <v>0.1217897789024267</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5495486285699087</v>
+        <v>1.719356378492307</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.77999337491228</v>
+        <v>0.6695453832381446</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5009768786243285</v>
+        <v>1.526624339217051</v>
       </c>
       <c r="C17">
-        <v>0.07834655284366931</v>
+        <v>0.2338430153977527</v>
       </c>
       <c r="D17">
-        <v>0.05292407243469199</v>
+        <v>0.1439994023518096</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5333785790102397</v>
+        <v>0.2836187462436328</v>
       </c>
       <c r="G17">
-        <v>0.002412052065441793</v>
+        <v>0.0007939559199433105</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4089943420083042</v>
+        <v>0.1259742753715933</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5275876271094546</v>
+        <v>1.650405743408044</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.790044801754675</v>
+        <v>0.6761708739811354</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4892182006506403</v>
+        <v>1.489517737665039</v>
       </c>
       <c r="C18">
-        <v>0.07665121936516073</v>
+        <v>0.2286071155095186</v>
       </c>
       <c r="D18">
-        <v>0.05186569193196533</v>
+        <v>0.1407942363513115</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.534357065336927</v>
+        <v>0.2818193073694886</v>
       </c>
       <c r="G18">
-        <v>0.002412498917762363</v>
+        <v>0.0007947055954768741</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4106896680488408</v>
+        <v>0.1284552534192436</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5149446079054485</v>
+        <v>1.610768069402667</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.795960898789332</v>
+        <v>0.6803349026212828</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4852354315491425</v>
+        <v>1.476957436599008</v>
       </c>
       <c r="C19">
-        <v>0.07607682475345712</v>
+        <v>0.2268346972454367</v>
       </c>
       <c r="D19">
-        <v>0.05150707462676962</v>
+        <v>0.1397090679818405</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5346955685554278</v>
+        <v>0.2812292181466134</v>
       </c>
       <c r="G19">
-        <v>0.002412651269061754</v>
+        <v>0.0007949603247200701</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4112687400440134</v>
+        <v>0.129307804836639</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5106619278566598</v>
+        <v>1.597350673676232</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.79798712482139</v>
+        <v>0.6818043527119499</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5031524354886869</v>
+        <v>1.533493609564573</v>
       </c>
       <c r="C20">
-        <v>0.07866013785528025</v>
+        <v>0.2348122486787219</v>
       </c>
       <c r="D20">
-        <v>0.05311982717525154</v>
+        <v>0.1445926337005972</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5332009059630067</v>
+        <v>0.2839609757304231</v>
       </c>
       <c r="G20">
-        <v>0.002411969863894194</v>
+        <v>0.0007938175981091478</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4086829810916246</v>
+        <v>0.1255211040576025</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5299266234494837</v>
+        <v>1.657743408250184</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.788960857971261</v>
+        <v>0.6754287627844207</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5632443171712112</v>
+        <v>1.72372880371438</v>
       </c>
       <c r="C21">
-        <v>0.08731251672504925</v>
+        <v>0.2616482720577409</v>
       </c>
       <c r="D21">
-        <v>0.05851952413937056</v>
+        <v>0.161007248051547</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5286806178454313</v>
+        <v>0.2945271614808505</v>
       </c>
       <c r="G21">
-        <v>0.002409753613911803</v>
+        <v>0.0007900396019831539</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4003478058642624</v>
+        <v>0.1136998442770096</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5945124033890181</v>
+        <v>1.860931347967238</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.760245056553757</v>
+        <v>0.658310179408744</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6024339554845426</v>
+        <v>1.848327073237328</v>
       </c>
       <c r="C22">
-        <v>0.09294648945174799</v>
+        <v>0.2792200268422249</v>
       </c>
       <c r="D22">
-        <v>0.06203407921121595</v>
+        <v>0.1717440634281502</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.526100631685523</v>
+        <v>0.3025333334461067</v>
       </c>
       <c r="G22">
-        <v>0.002408359498171645</v>
+        <v>0.0007876146059594167</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3951635267502223</v>
+        <v>0.1066818796241957</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6366133693288134</v>
+        <v>1.993995605797323</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.742680454706431</v>
+        <v>0.6505212572197792</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5815256575521914</v>
+        <v>1.781798138274041</v>
       </c>
       <c r="C23">
-        <v>0.08994147809048059</v>
+        <v>0.2698380687316586</v>
       </c>
       <c r="D23">
-        <v>0.06015964047116995</v>
+        <v>0.1660125365805953</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5274433430157828</v>
+        <v>0.2981552090677368</v>
       </c>
       <c r="G23">
-        <v>0.002409098605967395</v>
+        <v>0.0007889049402575971</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3979063602920849</v>
+        <v>0.1103603455322446</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6141536071029918</v>
+        <v>1.9229478762594</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.75194482780131</v>
+        <v>0.6543546042793338</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5021689100794049</v>
+        <v>1.530387998772596</v>
       </c>
       <c r="C24">
-        <v>0.07851837547450202</v>
+        <v>0.2343740582859368</v>
       </c>
       <c r="D24">
-        <v>0.05303133283706529</v>
+        <v>0.1443244371404262</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.533281099922327</v>
+        <v>0.2838059029969884</v>
       </c>
       <c r="G24">
-        <v>0.002412007007345725</v>
+        <v>0.0007938801161926179</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4088236531379632</v>
+        <v>0.1257257489210808</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5288692171714615</v>
+        <v>1.654426041637322</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.78945048100276</v>
+        <v>0.6757631684339742</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4162371674662779</v>
+        <v>1.259982244167446</v>
       </c>
       <c r="C25">
-        <v>0.06611091661703483</v>
+        <v>0.1962071366701394</v>
       </c>
       <c r="D25">
-        <v>0.04528246175149775</v>
+        <v>0.1209427957587934</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5411820379057133</v>
+        <v>0.272633103774595</v>
       </c>
       <c r="G25">
-        <v>0.002415378823893266</v>
+        <v>0.0007994465123300444</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4217271611563707</v>
+        <v>0.1451108351151973</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.436434732734341</v>
+        <v>1.365538942195201</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.835057865033662</v>
+        <v>0.71222956699728</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.061132696416053</v>
+        <v>0.9471927453530498</v>
       </c>
       <c r="C2">
-        <v>0.1681186081651589</v>
+        <v>0.2206291439306725</v>
       </c>
       <c r="D2">
-        <v>0.1037075669414662</v>
+        <v>0.09112887772137412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.267673798854652</v>
+        <v>0.3998297878660821</v>
       </c>
       <c r="G2">
-        <v>0.0008037284284626153</v>
+        <v>0.3030846412903401</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.005921691643846594</v>
       </c>
       <c r="I2">
-        <v>0.1615686341002309</v>
+        <v>0.00377464254678106</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2916368801753393</v>
       </c>
       <c r="K2">
-        <v>1.15303223169272</v>
+        <v>0.3548558588924138</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8759133412968652</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2412451660419066</v>
       </c>
       <c r="O2">
-        <v>0.7493296691524307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2311367075051898</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.200609490751475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9263356426465066</v>
+        <v>0.8257224855731522</v>
       </c>
       <c r="C3">
-        <v>0.1490639904257733</v>
+        <v>0.2139755075481844</v>
       </c>
       <c r="D3">
-        <v>0.09200134590400921</v>
+        <v>0.08137574914589152</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2661484613657414</v>
+        <v>0.3865326101305655</v>
       </c>
       <c r="G3">
-        <v>0.0008067501006617187</v>
+        <v>0.2981899664227825</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.007641933654752214</v>
       </c>
       <c r="I3">
-        <v>0.1739764792721754</v>
+        <v>0.005073693466411733</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2933702700718968</v>
       </c>
       <c r="K3">
-        <v>1.008935931117236</v>
+        <v>0.3579541209385688</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.773908766534845</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2171972953902923</v>
       </c>
       <c r="O3">
-        <v>0.7802853461031205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2020145342006288</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.193602582804829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8434962538543402</v>
+        <v>0.7508584683998833</v>
       </c>
       <c r="C4">
-        <v>0.1373471164596225</v>
+        <v>0.2098715073981694</v>
       </c>
       <c r="D4">
-        <v>0.08479695491106298</v>
+        <v>0.07538817559250077</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2660543057591624</v>
+        <v>0.3787493926806249</v>
       </c>
       <c r="G4">
-        <v>0.0008086661649463966</v>
+        <v>0.29549105298819</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.008852758911642597</v>
       </c>
       <c r="I4">
-        <v>0.1821796459300664</v>
+        <v>0.00604447397799257</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2946557984230793</v>
       </c>
       <c r="K4">
-        <v>0.9203615094098438</v>
+        <v>0.3600602076181261</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.71122046771535</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2024154550583361</v>
       </c>
       <c r="O4">
-        <v>0.8019781929392167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1840940157721462</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.190406264538382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8097128199214012</v>
+        <v>0.7199649123738538</v>
       </c>
       <c r="C5">
-        <v>0.132567028185548</v>
+        <v>0.2083180021518984</v>
       </c>
       <c r="D5">
-        <v>0.08185639112740972</v>
+        <v>0.07301347358974652</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2662188217279216</v>
+        <v>0.3753129437751781</v>
       </c>
       <c r="G5">
-        <v>0.0008094624814899355</v>
+        <v>0.2941281276332006</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.009387186790399203</v>
       </c>
       <c r="I5">
-        <v>0.1856646540269127</v>
+        <v>0.006561304262743484</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2950556648134963</v>
       </c>
       <c r="K5">
-        <v>0.8842341799374651</v>
+        <v>0.3606428291232113</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6859971833777223</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1963905782238129</v>
       </c>
       <c r="O5">
-        <v>0.8114677675222879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1767366707047984</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.188284388014836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.804101350843041</v>
+        <v>0.7144469668578211</v>
       </c>
       <c r="C6">
-        <v>0.1317729453589891</v>
+        <v>0.2082142983317183</v>
       </c>
       <c r="D6">
-        <v>0.08136781360234124</v>
+        <v>0.07269964247266358</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2662581384066165</v>
+        <v>0.3743113984940436</v>
       </c>
       <c r="G6">
-        <v>0.0008095956522965269</v>
+        <v>0.2934942503875604</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.009482373132696252</v>
       </c>
       <c r="I6">
-        <v>0.1862517835302677</v>
+        <v>0.006753717143472393</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2949073248219563</v>
       </c>
       <c r="K6">
-        <v>0.8782330836007191</v>
+        <v>0.3603450078281902</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6822256026042623</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1953949137962283</v>
       </c>
       <c r="O6">
-        <v>0.8130820003885617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1754605336096908</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.186618024996363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8430407519896335</v>
+        <v>0.7493907044378147</v>
       </c>
       <c r="C7">
-        <v>0.1372826735550348</v>
+        <v>0.2102759885668917</v>
       </c>
       <c r="D7">
-        <v>0.08475731718663582</v>
+        <v>0.07557688925149364</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2660557145657663</v>
+        <v>0.3775117522906797</v>
       </c>
       <c r="G7">
-        <v>0.0008086768413016082</v>
+        <v>0.2943485773458647</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.008870661699190985</v>
       </c>
       <c r="I7">
-        <v>0.1822260767076722</v>
+        <v>0.006319658933785277</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2940673671525715</v>
       </c>
       <c r="K7">
-        <v>0.9198744251741857</v>
+        <v>0.3589846535623735</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7120263981185246</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2023489231296551</v>
       </c>
       <c r="O7">
-        <v>0.8021035759810715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1838474345128276</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.186750547880223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.014665378680149</v>
+        <v>0.9039611097713589</v>
       </c>
       <c r="C8">
-        <v>0.1615515136566472</v>
+        <v>0.218920080440931</v>
       </c>
       <c r="D8">
-        <v>0.0996744126586151</v>
+        <v>0.08806118919144268</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.266967525217531</v>
+        <v>0.3935933991364919</v>
       </c>
       <c r="G8">
-        <v>0.0008047578347472775</v>
+        <v>0.299852684014418</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.006493405535452523</v>
       </c>
       <c r="I8">
-        <v>0.1657225134621516</v>
+        <v>0.004508831336219821</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2914109184013114</v>
       </c>
       <c r="K8">
-        <v>1.103363478021379</v>
+        <v>0.3544627739017692</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8422877502466974</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2329787316617171</v>
       </c>
       <c r="O8">
-        <v>0.7594298510019541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2209059587760542</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.193195864795655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.351003415580919</v>
+        <v>1.206858464793328</v>
       </c>
       <c r="C9">
-        <v>0.2090577623723533</v>
+        <v>0.2349951194158351</v>
       </c>
       <c r="D9">
-        <v>0.1288200446186352</v>
+        <v>0.1121792879308998</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2758611071854489</v>
+        <v>0.4304503838142608</v>
       </c>
       <c r="G9">
-        <v>0.0007975437147248042</v>
+        <v>0.315217063535556</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003105493516291191</v>
       </c>
       <c r="I9">
-        <v>0.1382265489624004</v>
+        <v>0.001993132678761889</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2890623851373491</v>
       </c>
       <c r="K9">
-        <v>1.462791437625043</v>
+        <v>0.3491790790193789</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.095396653317692</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2929393945137804</v>
       </c>
       <c r="O9">
-        <v>0.6982729488709367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2935719494643507</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.221461858649647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.598544274869454</v>
+        <v>1.425636776387819</v>
       </c>
       <c r="C10">
-        <v>0.2439899630733748</v>
+        <v>0.2494137324341423</v>
       </c>
       <c r="D10">
-        <v>0.1502086300254462</v>
+        <v>0.1312118740747081</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2873403616758949</v>
+        <v>0.4534641007754772</v>
       </c>
       <c r="G10">
-        <v>0.0007925145697555537</v>
+        <v>0.3224219960356507</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00177732515012341</v>
       </c>
       <c r="I10">
-        <v>0.121322505596142</v>
+        <v>0.001273581610677255</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2854938543771937</v>
       </c>
       <c r="K10">
-        <v>1.727227231224305</v>
+        <v>0.3409829444426222</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.289695744169165</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3191707603393752</v>
       </c>
       <c r="O10">
-        <v>0.668838069822101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3389192744658729</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.229679634131799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.711387431208749</v>
+        <v>1.504656538629007</v>
       </c>
       <c r="C11">
-        <v>0.2599076040206398</v>
+        <v>0.2829959129306729</v>
       </c>
       <c r="D11">
-        <v>0.1599431710515375</v>
+        <v>0.1506351276590294</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2937797475496282</v>
+        <v>0.4142613657893577</v>
       </c>
       <c r="G11">
-        <v>0.0007902818034413999</v>
+        <v>0.2801496303795687</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02051799365992935</v>
       </c>
       <c r="I11">
-        <v>0.1144253492617864</v>
+        <v>0.001665116850955606</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2602332476941243</v>
       </c>
       <c r="K11">
-        <v>1.847750709226005</v>
+        <v>0.2966136901042091</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.449042614066741</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1972590479395961</v>
       </c>
       <c r="O11">
-        <v>0.6592254144416785</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2934674251587879</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.087344510146423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.754163767939104</v>
+        <v>1.526606890633502</v>
       </c>
       <c r="C12">
-        <v>0.2659407605718656</v>
+        <v>0.3147697429678118</v>
       </c>
       <c r="D12">
-        <v>0.1636308916008318</v>
+        <v>0.1633274950080761</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2964059168111817</v>
+        <v>0.3790151276045961</v>
       </c>
       <c r="G12">
-        <v>0.0007894439036272397</v>
+        <v>0.2466243898762031</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.059426192024155</v>
       </c>
       <c r="I12">
-        <v>0.1119343989901367</v>
+        <v>0.001641438002993212</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2413642000957523</v>
       </c>
       <c r="K12">
-        <v>1.893435451509305</v>
+        <v>0.2661362518478789</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.544538259886536</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1174918132855609</v>
       </c>
       <c r="O12">
-        <v>0.6561652578949122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2489337547527981</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9768263015776029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.74494892615968</v>
+        <v>1.504013861941701</v>
       </c>
       <c r="C13">
-        <v>0.2646411406803253</v>
+        <v>0.3471445826628354</v>
       </c>
       <c r="D13">
-        <v>0.1628365970803571</v>
+        <v>0.1717915183049854</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2958317661715242</v>
+        <v>0.3427637356722357</v>
       </c>
       <c r="G13">
-        <v>0.0007896240274360894</v>
+        <v>0.2159771031790427</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1155074449354174</v>
       </c>
       <c r="I13">
-        <v>0.1124653808453537</v>
+        <v>0.001663657330523982</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2252816556199235</v>
       </c>
       <c r="K13">
-        <v>1.883594217649375</v>
+        <v>0.2427003703820372</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.597268909114916</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06545869610355481</v>
       </c>
       <c r="O13">
-        <v>0.6567979149226204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2025705257336163</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8781619843116317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.714905695540494</v>
+        <v>1.467745896598416</v>
       </c>
       <c r="C14">
-        <v>0.2604038355495391</v>
+        <v>0.3710155770674959</v>
       </c>
       <c r="D14">
-        <v>0.1602465281204815</v>
+        <v>0.1758912141449684</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2939919668762059</v>
+        <v>0.3169370860437368</v>
       </c>
       <c r="G14">
-        <v>0.0007902127185037063</v>
+        <v>0.195965671572722</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1651236862761607</v>
       </c>
       <c r="I14">
-        <v>0.1142179543585922</v>
+        <v>0.00179448713880781</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2153123378084629</v>
       </c>
       <c r="K14">
-        <v>1.851508244352488</v>
+        <v>0.2298086665190837</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.615189540281108</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04553001717838789</v>
       </c>
       <c r="O14">
-        <v>0.6589618120421079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1699925923444887</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8148132192970081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.696509566953011</v>
+        <v>1.449034937177458</v>
       </c>
       <c r="C15">
-        <v>0.2578091297267804</v>
+        <v>0.3764257850230166</v>
       </c>
       <c r="D15">
-        <v>0.1586602503256671</v>
+        <v>0.1759871204972256</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2928898707836822</v>
+        <v>0.3099811135182833</v>
       </c>
       <c r="G15">
-        <v>0.0007905742890175482</v>
+        <v>0.191170083426087</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1777522769079098</v>
       </c>
       <c r="I15">
-        <v>0.1153074059625094</v>
+        <v>0.001964024739153025</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2132167333892028</v>
       </c>
       <c r="K15">
-        <v>1.831860906093198</v>
+        <v>0.2274952457332464</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.610310947086759</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04286565849184054</v>
       </c>
       <c r="O15">
-        <v>0.6603639165718249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1613013497321738</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8002280140823501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.591175389131223</v>
+        <v>1.359043243523331</v>
       </c>
       <c r="C16">
-        <v>0.2429503842092799</v>
+        <v>0.3626861006978288</v>
       </c>
       <c r="D16">
-        <v>0.1495726158745896</v>
+        <v>0.1658649755367776</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.286945094739913</v>
+        <v>0.3066672373675772</v>
       </c>
       <c r="G16">
-        <v>0.0007926615672119641</v>
+        <v>0.1935075876342935</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1656342600448681</v>
       </c>
       <c r="I16">
-        <v>0.1217897789024267</v>
+        <v>0.002368386808073275</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2174468577509145</v>
       </c>
       <c r="K16">
-        <v>1.719356378492307</v>
+        <v>0.234885100583309</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.514278131469723</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04345503572413101</v>
       </c>
       <c r="O16">
-        <v>0.6695453832381446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1525084503255876</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8138651988547565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.526624339217051</v>
+        <v>1.309348984157793</v>
       </c>
       <c r="C17">
-        <v>0.2338430153977527</v>
+        <v>0.339107443548599</v>
       </c>
       <c r="D17">
-        <v>0.1439994023518096</v>
+        <v>0.1559529250092169</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2836187462436328</v>
+        <v>0.3177831513791958</v>
       </c>
       <c r="G17">
-        <v>0.0007939559199433105</v>
+        <v>0.20578202519998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1281898838940094</v>
       </c>
       <c r="I17">
-        <v>0.1259742753715933</v>
+        <v>0.002650267921779026</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2259617904304037</v>
       </c>
       <c r="K17">
-        <v>1.650405743408044</v>
+        <v>0.247134777295388</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.431406788506763</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05174161075219175</v>
       </c>
       <c r="O17">
-        <v>0.6761708739811354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1625297338759317</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8576082028927487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.489517737665039</v>
+        <v>1.289397619233085</v>
       </c>
       <c r="C18">
-        <v>0.2286071155095186</v>
+        <v>0.3067494624196314</v>
       </c>
       <c r="D18">
-        <v>0.1407942363513115</v>
+        <v>0.1451274823847655</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2818193073694886</v>
+        <v>0.3439340832235729</v>
       </c>
       <c r="G18">
-        <v>0.0007947055954768741</v>
+        <v>0.2297486630421233</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07535766841658642</v>
       </c>
       <c r="I18">
-        <v>0.1284552534192436</v>
+        <v>0.002504713226259447</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2399484730785204</v>
       </c>
       <c r="K18">
-        <v>1.610768069402667</v>
+        <v>0.2673340376485722</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.350692782157552</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08173061931361048</v>
       </c>
       <c r="O18">
-        <v>0.6803349026212828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1917520338554901</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9376448843932508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.476957436599008</v>
+        <v>1.29266682238989</v>
       </c>
       <c r="C19">
-        <v>0.2268346972454367</v>
+        <v>0.2763852106055396</v>
       </c>
       <c r="D19">
-        <v>0.1397090679818405</v>
+        <v>0.1352003024493058</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2812292181466134</v>
+        <v>0.3794779152756576</v>
       </c>
       <c r="G19">
-        <v>0.0007949603247200701</v>
+        <v>0.2615601659243438</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02967525788398007</v>
       </c>
       <c r="I19">
-        <v>0.129307804836639</v>
+        <v>0.002560550654110649</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.257234897341867</v>
       </c>
       <c r="K19">
-        <v>1.597350673676232</v>
+        <v>0.294070552367856</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.281880840280678</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1482591886037881</v>
       </c>
       <c r="O19">
-        <v>0.6818043527119499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2370072199320994</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.041266283481022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.533493609564573</v>
+        <v>1.364796119824945</v>
       </c>
       <c r="C20">
-        <v>0.2348122486787219</v>
+        <v>0.2472588879658772</v>
       </c>
       <c r="D20">
-        <v>0.1445926337005972</v>
+        <v>0.1269723484271879</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2839609757304231</v>
+        <v>0.4433756141126821</v>
       </c>
       <c r="G20">
-        <v>0.0007938175981091478</v>
+        <v>0.3167684384279355</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002069567600409439</v>
       </c>
       <c r="I20">
-        <v>0.1255211040576025</v>
+        <v>0.002210808953777565</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2844549335280107</v>
       </c>
       <c r="K20">
-        <v>1.657743408250184</v>
+        <v>0.3396334780908035</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.242685362274244</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3115860161551893</v>
       </c>
       <c r="O20">
-        <v>0.6754287627844207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3262275771499787</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.215411155189543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.72372880371438</v>
+        <v>1.536325657737166</v>
       </c>
       <c r="C21">
-        <v>0.2616482720577409</v>
+        <v>0.2544402074246577</v>
       </c>
       <c r="D21">
-        <v>0.161007248051547</v>
+        <v>0.1397120824387628</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2945271614808505</v>
+        <v>0.4713993229771205</v>
       </c>
       <c r="G21">
-        <v>0.0007900396019831539</v>
+        <v>0.3318855548687765</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0009207931856903828</v>
       </c>
       <c r="I21">
-        <v>0.1136998442770096</v>
+        <v>0.001793374104568812</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2867685891168534</v>
       </c>
       <c r="K21">
-        <v>1.860931347967238</v>
+        <v>0.3419952554135897</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.37941331496404</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3593958294504915</v>
       </c>
       <c r="O21">
-        <v>0.658310179408744</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3732484747497082</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.252614997392854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.848327073237328</v>
+        <v>1.648633267404421</v>
       </c>
       <c r="C22">
-        <v>0.2792200268422249</v>
+        <v>0.259741942609736</v>
       </c>
       <c r="D22">
-        <v>0.1717440634281502</v>
+        <v>0.1483413326166527</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3025333334461067</v>
+        <v>0.4888212915401979</v>
       </c>
       <c r="G22">
-        <v>0.0007876146059594167</v>
+        <v>0.3408736704093442</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0004882297130375246</v>
       </c>
       <c r="I22">
-        <v>0.1066818796241957</v>
+        <v>0.001416956805220693</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2878594683046956</v>
       </c>
       <c r="K22">
-        <v>1.993995605797323</v>
+        <v>0.3426186866416536</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.471209342258135</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3815356279421991</v>
       </c>
       <c r="O22">
-        <v>0.6505212572197792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.4001860254647553</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.274150932800481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.781798138274041</v>
+        <v>1.589990699968439</v>
       </c>
       <c r="C23">
-        <v>0.2698380687316586</v>
+        <v>0.2563275004620778</v>
       </c>
       <c r="D23">
-        <v>0.1660125365805953</v>
+        <v>0.1434601745204702</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2981552090677368</v>
+        <v>0.4808559577583367</v>
       </c>
       <c r="G23">
-        <v>0.0007889049402575971</v>
+        <v>0.3373286134572524</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.000698559379748831</v>
       </c>
       <c r="I23">
-        <v>0.1103603455322446</v>
+        <v>0.001288628728219443</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2879226416464888</v>
       </c>
       <c r="K23">
-        <v>1.9229478762594</v>
+        <v>0.343480819170864</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.42078623615555</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3696880337028574</v>
       </c>
       <c r="O23">
-        <v>0.6543546042793338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3859893311107001</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.266663139817467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.530387998772596</v>
+        <v>1.365625204800352</v>
       </c>
       <c r="C24">
-        <v>0.2343740582859368</v>
+        <v>0.2443803145304528</v>
       </c>
       <c r="D24">
-        <v>0.1443244371404262</v>
+        <v>0.1254516074642282</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2838059029969884</v>
+        <v>0.4495441075782978</v>
       </c>
       <c r="G24">
-        <v>0.0007938801161926179</v>
+        <v>0.3227094191308524</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001875270343104418</v>
       </c>
       <c r="I24">
-        <v>0.1257257489210808</v>
+        <v>0.001698514067689949</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2876284941972003</v>
       </c>
       <c r="K24">
-        <v>1.654426041637322</v>
+        <v>0.3453327913131581</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.232290516824378</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.324933965181728</v>
       </c>
       <c r="O24">
-        <v>0.6757631684339742</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3319471709829713</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.234647218575944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.259982244167446</v>
+        <v>1.123182205459074</v>
       </c>
       <c r="C25">
-        <v>0.1962071366701394</v>
+        <v>0.2314836097884836</v>
       </c>
       <c r="D25">
-        <v>0.1209427957587934</v>
+        <v>0.1060566216704402</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.272633103774595</v>
+        <v>0.4179788395606678</v>
       </c>
       <c r="G25">
-        <v>0.0007994465123300444</v>
+        <v>0.3087619975840212</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.003886152682004207</v>
       </c>
       <c r="I25">
-        <v>0.1451108351151973</v>
+        <v>0.002962564226675291</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2884493132938104</v>
       </c>
       <c r="K25">
-        <v>1.365538942195201</v>
+        <v>0.3485153095050286</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.029050593822916</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2767534715939775</v>
       </c>
       <c r="O25">
-        <v>0.71222956699728</v>
+        <v>0.2736639887793828</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.206333339596824</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9471927453530498</v>
+        <v>0.9369643372990879</v>
       </c>
       <c r="C2">
-        <v>0.2206291439306725</v>
+        <v>0.2043480047766835</v>
       </c>
       <c r="D2">
-        <v>0.09112887772137412</v>
+        <v>0.09359569429288683</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3998297878660821</v>
+        <v>0.3754960466413237</v>
       </c>
       <c r="G2">
-        <v>0.3030846412903401</v>
+        <v>0.2629932812338254</v>
       </c>
       <c r="H2">
-        <v>0.005921691643846594</v>
+        <v>0.004971939633632017</v>
       </c>
       <c r="I2">
-        <v>0.00377464254678106</v>
+        <v>0.002801549214816568</v>
       </c>
       <c r="J2">
-        <v>0.2916368801753393</v>
+        <v>0.3060116453044799</v>
       </c>
       <c r="K2">
-        <v>0.3548558588924138</v>
+        <v>0.3232163994972446</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1555713419226308</v>
       </c>
       <c r="M2">
-        <v>0.8759133412968652</v>
+        <v>0.09190845574121376</v>
       </c>
       <c r="N2">
-        <v>0.2412451660419066</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2311367075051898</v>
+        <v>0.8945527280268095</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.247039672720021</v>
       </c>
       <c r="Q2">
-        <v>1.200609490751475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2291801950970793</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.118384885059086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8257224855731522</v>
+        <v>0.8191270629264977</v>
       </c>
       <c r="C3">
-        <v>0.2139755075481844</v>
+        <v>0.1951079894007464</v>
       </c>
       <c r="D3">
-        <v>0.08137574914589152</v>
+        <v>0.08297584714026129</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3865326101305655</v>
+        <v>0.3649453265558762</v>
       </c>
       <c r="G3">
-        <v>0.2981899664227825</v>
+        <v>0.261285698829937</v>
       </c>
       <c r="H3">
-        <v>0.007641933654752214</v>
+        <v>0.006449254374087554</v>
       </c>
       <c r="I3">
-        <v>0.005073693466411733</v>
+        <v>0.003759116335741552</v>
       </c>
       <c r="J3">
-        <v>0.2933702700718968</v>
+        <v>0.3066773933205127</v>
       </c>
       <c r="K3">
-        <v>0.3579541209385688</v>
+        <v>0.3279871386239854</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1605533907968777</v>
       </c>
       <c r="M3">
-        <v>0.773908766534845</v>
+        <v>0.0920492703632263</v>
       </c>
       <c r="N3">
-        <v>0.2171972953902923</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2020145342006288</v>
+        <v>0.7886749821833092</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.223251556869549</v>
       </c>
       <c r="Q3">
-        <v>1.193602582804829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2005145438694491</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.118491414764506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7508584683998833</v>
+        <v>0.7464118133039506</v>
       </c>
       <c r="C4">
-        <v>0.2098715073981694</v>
+        <v>0.1894848565865743</v>
       </c>
       <c r="D4">
-        <v>0.07538817559250077</v>
+        <v>0.07647111495741399</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3787493926806249</v>
+        <v>0.3587667809062083</v>
       </c>
       <c r="G4">
-        <v>0.29549105298819</v>
+        <v>0.260550288906586</v>
       </c>
       <c r="H4">
-        <v>0.008852758911642597</v>
+        <v>0.007491360717041817</v>
       </c>
       <c r="I4">
-        <v>0.00604447397799257</v>
+        <v>0.004495788578665838</v>
       </c>
       <c r="J4">
-        <v>0.2946557984230793</v>
+        <v>0.3071684916840027</v>
       </c>
       <c r="K4">
-        <v>0.3600602076181261</v>
+        <v>0.3310605808304743</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1637366218177014</v>
       </c>
       <c r="M4">
-        <v>0.71122046771535</v>
+        <v>0.09262511296281328</v>
       </c>
       <c r="N4">
-        <v>0.2024154550583361</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1840940157721462</v>
+        <v>0.7236691530144981</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2086367810936096</v>
       </c>
       <c r="Q4">
-        <v>1.190406264538382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1828605557951235</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.119425664704451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7199649123738538</v>
+        <v>0.716379995973881</v>
       </c>
       <c r="C5">
-        <v>0.2083180021518984</v>
+        <v>0.1873580996700284</v>
       </c>
       <c r="D5">
-        <v>0.07301347358974652</v>
+        <v>0.07388981980784592</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3753129437751781</v>
+        <v>0.3559794657438431</v>
       </c>
       <c r="G5">
-        <v>0.2941281276332006</v>
+        <v>0.2600118266339493</v>
       </c>
       <c r="H5">
-        <v>0.009387186790399203</v>
+        <v>0.00795195854369074</v>
       </c>
       <c r="I5">
-        <v>0.006561304262743484</v>
+        <v>0.004923391592142501</v>
       </c>
       <c r="J5">
-        <v>0.2950556648134963</v>
+        <v>0.3072122213334438</v>
       </c>
       <c r="K5">
-        <v>0.3606428291232113</v>
+        <v>0.3320482677567114</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1649072608563458</v>
       </c>
       <c r="M5">
-        <v>0.6859971833777223</v>
+        <v>0.09291422158368157</v>
       </c>
       <c r="N5">
-        <v>0.1963905782238129</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1767366707047984</v>
+        <v>0.6975158050390888</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2026815284417367</v>
       </c>
       <c r="Q5">
-        <v>1.188284388014836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.175609359670549</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.118986782943921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7144469668578211</v>
+        <v>0.7110113970253451</v>
       </c>
       <c r="C6">
-        <v>0.2082142983317183</v>
+        <v>0.1871958108894702</v>
       </c>
       <c r="D6">
-        <v>0.07269964247266358</v>
+        <v>0.07354240198763762</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3743113984940436</v>
+        <v>0.3551034094924859</v>
       </c>
       <c r="G6">
-        <v>0.2934942503875604</v>
+        <v>0.2595434259341829</v>
       </c>
       <c r="H6">
-        <v>0.009482373132696252</v>
+        <v>0.0080342033372688</v>
       </c>
       <c r="I6">
-        <v>0.006753717143472393</v>
+        <v>0.005116932798647333</v>
       </c>
       <c r="J6">
-        <v>0.2949073248219563</v>
+        <v>0.307004859070517</v>
       </c>
       <c r="K6">
-        <v>0.3603450078281902</v>
+        <v>0.3318484380223232</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1649117568337601</v>
       </c>
       <c r="M6">
-        <v>0.6822256026042623</v>
+        <v>0.09288573684370682</v>
       </c>
       <c r="N6">
-        <v>0.1953949137962283</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1754605336096908</v>
+        <v>0.6935890570801888</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2016969288527406</v>
       </c>
       <c r="Q6">
-        <v>1.186618024996363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1743516801870193</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.117668219460711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7493907044378147</v>
+        <v>0.7450876777649569</v>
       </c>
       <c r="C7">
-        <v>0.2102759885668917</v>
+        <v>0.1898684874533245</v>
       </c>
       <c r="D7">
-        <v>0.07557688925149364</v>
+        <v>0.07679441162962775</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3775117522906797</v>
+        <v>0.3569265126045238</v>
       </c>
       <c r="G7">
-        <v>0.2943485773458647</v>
+        <v>0.2614271367489494</v>
       </c>
       <c r="H7">
-        <v>0.008870661699190985</v>
+        <v>0.007511062560813409</v>
       </c>
       <c r="I7">
-        <v>0.006319658933785277</v>
+        <v>0.004816169664842107</v>
       </c>
       <c r="J7">
-        <v>0.2940673671525715</v>
+        <v>0.3035479832493877</v>
       </c>
       <c r="K7">
-        <v>0.3589846535623735</v>
+        <v>0.3297157279127934</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1630601884483944</v>
       </c>
       <c r="M7">
-        <v>0.7120263981185246</v>
+        <v>0.09229745388249899</v>
       </c>
       <c r="N7">
-        <v>0.2023489231296551</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1838474345128276</v>
+        <v>0.7242645946029285</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2085473973242316</v>
       </c>
       <c r="Q7">
-        <v>1.186750547880223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.182634298913932</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.114018574766391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9039611097713589</v>
+        <v>0.8954049611743926</v>
       </c>
       <c r="C8">
-        <v>0.218920080440931</v>
+        <v>0.2015053040924641</v>
       </c>
       <c r="D8">
-        <v>0.08806118919144268</v>
+        <v>0.09068818662905187</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3935933991364919</v>
+        <v>0.3681085796328318</v>
       </c>
       <c r="G8">
-        <v>0.299852684014418</v>
+        <v>0.2674274428068344</v>
       </c>
       <c r="H8">
-        <v>0.006493405535452523</v>
+        <v>0.0054728798041902</v>
       </c>
       <c r="I8">
-        <v>0.004508831336219821</v>
+        <v>0.003486808332342939</v>
       </c>
       <c r="J8">
-        <v>0.2914109184013114</v>
+        <v>0.2956816860433449</v>
       </c>
       <c r="K8">
-        <v>0.3544627739017692</v>
+        <v>0.3223669619784282</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1561242987223359</v>
       </c>
       <c r="M8">
-        <v>0.8422877502466974</v>
+        <v>0.09113746612971951</v>
       </c>
       <c r="N8">
-        <v>0.2329787316617171</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2209059587760542</v>
+        <v>0.8589323295911129</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2387893352810977</v>
       </c>
       <c r="Q8">
-        <v>1.193195864795655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2191670161550867</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.107290676982984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.206858464793328</v>
+        <v>1.188833851432889</v>
       </c>
       <c r="C9">
-        <v>0.2349951194158351</v>
+        <v>0.2242119635889495</v>
       </c>
       <c r="D9">
-        <v>0.1121792879308998</v>
+        <v>0.1171907810085884</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4304503838142608</v>
+        <v>0.3969933241389185</v>
       </c>
       <c r="G9">
-        <v>0.315217063535556</v>
+        <v>0.2765829429042128</v>
       </c>
       <c r="H9">
-        <v>0.003105493516291191</v>
+        <v>0.002573892180576354</v>
       </c>
       <c r="I9">
-        <v>0.001993132678761889</v>
+        <v>0.001624823244187112</v>
       </c>
       <c r="J9">
-        <v>0.2890623851373491</v>
+        <v>0.2925838941242915</v>
       </c>
       <c r="K9">
-        <v>0.3491790790193789</v>
+        <v>0.312193974318749</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1449718039134407</v>
       </c>
       <c r="M9">
-        <v>1.095396653317692</v>
+        <v>0.09359998176337747</v>
       </c>
       <c r="N9">
-        <v>0.2929393945137804</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2935719494643507</v>
+        <v>1.121844251831504</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2981244662591394</v>
       </c>
       <c r="Q9">
-        <v>1.221461858649647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2906207151767148</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.114541337769396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.425636776387819</v>
+        <v>1.401444622649194</v>
       </c>
       <c r="C10">
-        <v>0.2494137324341423</v>
+        <v>0.2436772680536734</v>
       </c>
       <c r="D10">
-        <v>0.1312118740747081</v>
+        <v>0.1388226949329407</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4534641007754772</v>
+        <v>0.4108309456343946</v>
       </c>
       <c r="G10">
-        <v>0.3224219960356507</v>
+        <v>0.2917582384629469</v>
       </c>
       <c r="H10">
-        <v>0.00177732515012341</v>
+        <v>0.001488640149430065</v>
       </c>
       <c r="I10">
-        <v>0.001273581610677255</v>
+        <v>0.001264985455177836</v>
       </c>
       <c r="J10">
-        <v>0.2854938543771937</v>
+        <v>0.2727750313253381</v>
       </c>
       <c r="K10">
-        <v>0.3409829444426222</v>
+        <v>0.2992963516983771</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1352289264342854</v>
       </c>
       <c r="M10">
-        <v>1.289695744169165</v>
+        <v>0.09528160610187797</v>
       </c>
       <c r="N10">
-        <v>0.3191707603393752</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3389192744658729</v>
+        <v>1.3219681681108</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3237202013939964</v>
       </c>
       <c r="Q10">
-        <v>1.229679634131799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3352041940587043</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.098159659387719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.504656538629007</v>
+        <v>1.483820064900783</v>
       </c>
       <c r="C11">
-        <v>0.2829959129306729</v>
+        <v>0.2810335276369216</v>
       </c>
       <c r="D11">
-        <v>0.1506351276590294</v>
+        <v>0.1603660911282248</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4142613657893577</v>
+        <v>0.3690113214442405</v>
       </c>
       <c r="G11">
-        <v>0.2801496303795687</v>
+        <v>0.2781244383977537</v>
       </c>
       <c r="H11">
-        <v>0.02051799365992935</v>
+        <v>0.02024939614610233</v>
       </c>
       <c r="I11">
-        <v>0.001665116850955606</v>
+        <v>0.00183440969022719</v>
       </c>
       <c r="J11">
-        <v>0.2602332476941243</v>
+        <v>0.227660680483023</v>
       </c>
       <c r="K11">
-        <v>0.2966136901042091</v>
+        <v>0.2592767512086063</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1197334452922032</v>
       </c>
       <c r="M11">
-        <v>1.449042614066741</v>
+        <v>0.08183793584824706</v>
       </c>
       <c r="N11">
-        <v>0.1972590479395961</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2934674251587879</v>
+        <v>1.477468250355003</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2006973157344376</v>
       </c>
       <c r="Q11">
-        <v>1.087344510146423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2905077424170557</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9538027165882283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.526606890633502</v>
+        <v>1.509611042755836</v>
       </c>
       <c r="C12">
-        <v>0.3147697429678118</v>
+        <v>0.3135888381728051</v>
       </c>
       <c r="D12">
-        <v>0.1633274950080761</v>
+        <v>0.1737523663744298</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3790151276045961</v>
+        <v>0.3358644584943846</v>
       </c>
       <c r="G12">
-        <v>0.2466243898762031</v>
+        <v>0.2577152961914848</v>
       </c>
       <c r="H12">
-        <v>0.059426192024155</v>
+        <v>0.05914912751256196</v>
       </c>
       <c r="I12">
-        <v>0.001641438002993212</v>
+        <v>0.001822412386443872</v>
       </c>
       <c r="J12">
-        <v>0.2413642000957523</v>
+        <v>0.2080074913755183</v>
       </c>
       <c r="K12">
-        <v>0.2661362518478789</v>
+        <v>0.2342795111111258</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1112361104269395</v>
       </c>
       <c r="M12">
-        <v>1.544538259886536</v>
+        <v>0.07201897589170869</v>
       </c>
       <c r="N12">
-        <v>0.1174918132855609</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2489337547527981</v>
+        <v>1.568678930291213</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1202921281580771</v>
       </c>
       <c r="Q12">
-        <v>0.9768263015776029</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2466487751496622</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8535906060916432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.504013861941701</v>
+        <v>1.491147484485367</v>
       </c>
       <c r="C13">
-        <v>0.3471445826628354</v>
+        <v>0.3452870626073974</v>
       </c>
       <c r="D13">
-        <v>0.1717915183049854</v>
+        <v>0.1812887125429796</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3427637356722357</v>
+        <v>0.3065225088020895</v>
       </c>
       <c r="G13">
-        <v>0.2159771031790427</v>
+        <v>0.225400521936173</v>
       </c>
       <c r="H13">
-        <v>0.1155074449354174</v>
+        <v>0.1151902434714458</v>
       </c>
       <c r="I13">
-        <v>0.001663657330523982</v>
+        <v>0.001807152111970467</v>
       </c>
       <c r="J13">
-        <v>0.2252816556199235</v>
+        <v>0.202393822525309</v>
       </c>
       <c r="K13">
-        <v>0.2427003703820372</v>
+        <v>0.2174818123606688</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1061989294204384</v>
       </c>
       <c r="M13">
-        <v>1.597268909114916</v>
+        <v>0.06425936150272449</v>
       </c>
       <c r="N13">
-        <v>0.06545869610355481</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2025705257336163</v>
+        <v>1.617154121630648</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.0679202242728465</v>
       </c>
       <c r="Q13">
-        <v>0.8781619843116317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2008962001597432</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7772080400209802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.467745896598416</v>
+        <v>1.457896222615318</v>
       </c>
       <c r="C14">
-        <v>0.3710155770674959</v>
+        <v>0.3679651121987746</v>
       </c>
       <c r="D14">
-        <v>0.1758912141449684</v>
+        <v>0.1839647975227905</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3169370860437368</v>
+        <v>0.2872804542168623</v>
       </c>
       <c r="G14">
-        <v>0.195965671572722</v>
+        <v>0.1989851786043744</v>
       </c>
       <c r="H14">
-        <v>0.1651236862761607</v>
+        <v>0.1647620627898618</v>
       </c>
       <c r="I14">
-        <v>0.00179448713880781</v>
+        <v>0.001901916045421004</v>
       </c>
       <c r="J14">
-        <v>0.2153123378084629</v>
+        <v>0.2028625030332059</v>
       </c>
       <c r="K14">
-        <v>0.2298086665190837</v>
+        <v>0.2092221002134957</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1039362311547021</v>
       </c>
       <c r="M14">
-        <v>1.615189540281108</v>
+        <v>0.0599106606101838</v>
       </c>
       <c r="N14">
-        <v>0.04553001717838789</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1699925923444887</v>
+        <v>1.632083962869785</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04787764938592609</v>
       </c>
       <c r="Q14">
-        <v>0.8148132192970081</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1687059953855155</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7331440713978452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.449034937177458</v>
+        <v>1.4399879701771</v>
       </c>
       <c r="C15">
-        <v>0.3764257850230166</v>
+        <v>0.3729907407327744</v>
       </c>
       <c r="D15">
-        <v>0.1759871204972256</v>
+        <v>0.183393823234141</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3099811135182833</v>
+        <v>0.2827310739022053</v>
       </c>
       <c r="G15">
-        <v>0.191170083426087</v>
+        <v>0.1906428501744131</v>
       </c>
       <c r="H15">
-        <v>0.1777522769079098</v>
+        <v>0.1773687475491812</v>
       </c>
       <c r="I15">
-        <v>0.001964024739153025</v>
+        <v>0.002071742203994198</v>
       </c>
       <c r="J15">
-        <v>0.2132167333892028</v>
+        <v>0.2048188469154262</v>
       </c>
       <c r="K15">
-        <v>0.2274952457332464</v>
+        <v>0.2081585795393019</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1037144410128454</v>
       </c>
       <c r="M15">
-        <v>1.610310947086759</v>
+        <v>0.05910563051064077</v>
       </c>
       <c r="N15">
-        <v>0.04286565849184054</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1613013497321738</v>
+        <v>1.626516560690334</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04522819365149999</v>
       </c>
       <c r="Q15">
-        <v>0.8002280140823501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1601066911428184</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7250756078082645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.359043243523331</v>
+        <v>1.350671202245053</v>
       </c>
       <c r="C16">
-        <v>0.3626861006978288</v>
+        <v>0.3586982101163585</v>
       </c>
       <c r="D16">
-        <v>0.1658649755367776</v>
+        <v>0.1706907714255408</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3066672373675772</v>
+        <v>0.2862968974456237</v>
       </c>
       <c r="G16">
-        <v>0.1935075876342935</v>
+        <v>0.1767753642242909</v>
       </c>
       <c r="H16">
-        <v>0.1656342600448681</v>
+        <v>0.1651320130156364</v>
       </c>
       <c r="I16">
-        <v>0.002368386808073275</v>
+        <v>0.002365776061170166</v>
       </c>
       <c r="J16">
-        <v>0.2174468577509145</v>
+        <v>0.2244222990085305</v>
       </c>
       <c r="K16">
-        <v>0.234885100583309</v>
+        <v>0.2169874287201736</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1069693058295647</v>
       </c>
       <c r="M16">
-        <v>1.514278131469723</v>
+        <v>0.06136514546305882</v>
       </c>
       <c r="N16">
-        <v>0.04345503572413101</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1525084503255876</v>
+        <v>1.530843500952898</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04618724018833387</v>
       </c>
       <c r="Q16">
-        <v>0.8138651988547565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1513456110797939</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7548846802063309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.309348984157793</v>
+        <v>1.300090760608612</v>
       </c>
       <c r="C17">
-        <v>0.339107443548599</v>
+        <v>0.3350592313990006</v>
       </c>
       <c r="D17">
-        <v>0.1559529250092169</v>
+        <v>0.159919754276217</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3177831513791958</v>
+        <v>0.298733136219596</v>
       </c>
       <c r="G17">
-        <v>0.20578202519998</v>
+        <v>0.181326581485834</v>
       </c>
       <c r="H17">
-        <v>0.1281898838940094</v>
+        <v>0.1276190794524723</v>
       </c>
       <c r="I17">
-        <v>0.002650267921779026</v>
+        <v>0.002581445019259831</v>
       </c>
       <c r="J17">
-        <v>0.2259617904304037</v>
+        <v>0.2397967261841991</v>
       </c>
       <c r="K17">
-        <v>0.247134777295388</v>
+        <v>0.228208188642661</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1111154336730227</v>
       </c>
       <c r="M17">
-        <v>1.431406788506763</v>
+        <v>0.06510578678304224</v>
       </c>
       <c r="N17">
-        <v>0.05174161075219175</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1625297338759317</v>
+        <v>1.449483138137538</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05482449830025438</v>
       </c>
       <c r="Q17">
-        <v>0.8576082028927487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1612148465784173</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.800401690067261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.289397619233085</v>
+        <v>1.277573736923557</v>
       </c>
       <c r="C18">
-        <v>0.3067494624196314</v>
+        <v>0.3027957234890835</v>
       </c>
       <c r="D18">
-        <v>0.1451274823847655</v>
+        <v>0.149164598215819</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3439340832235729</v>
+        <v>0.3226613620565146</v>
       </c>
       <c r="G18">
-        <v>0.2297486630421233</v>
+        <v>0.1993571889314438</v>
       </c>
       <c r="H18">
-        <v>0.07535766841658642</v>
+        <v>0.07477287444395841</v>
       </c>
       <c r="I18">
-        <v>0.002504713226259447</v>
+        <v>0.0023633337563993</v>
       </c>
       <c r="J18">
-        <v>0.2399484730785204</v>
+        <v>0.2556152341558402</v>
       </c>
       <c r="K18">
-        <v>0.2673340376485722</v>
+        <v>0.2451388272193782</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1174567322009308</v>
       </c>
       <c r="M18">
-        <v>1.350692782157552</v>
+        <v>0.0712479152586063</v>
       </c>
       <c r="N18">
-        <v>0.08173061931361048</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1917520338554901</v>
+        <v>1.371745050530478</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.08524943812755836</v>
       </c>
       <c r="Q18">
-        <v>0.9376448843932508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1900532584605159</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8724274305373712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.29266682238989</v>
+        <v>1.27707541502491</v>
       </c>
       <c r="C19">
-        <v>0.2763852106055396</v>
+        <v>0.2720315833101949</v>
       </c>
       <c r="D19">
-        <v>0.1352003024493058</v>
+        <v>0.1398124808824974</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3794779152756576</v>
+        <v>0.3535882926467337</v>
       </c>
       <c r="G19">
-        <v>0.2615601659243438</v>
+        <v>0.225501331493895</v>
       </c>
       <c r="H19">
-        <v>0.02967525788398007</v>
+        <v>0.02913729299415024</v>
       </c>
       <c r="I19">
-        <v>0.002560550654110649</v>
+        <v>0.00246446026307634</v>
       </c>
       <c r="J19">
-        <v>0.257234897341867</v>
+        <v>0.2715189501785247</v>
       </c>
       <c r="K19">
-        <v>0.294070552367856</v>
+        <v>0.2666837304339573</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1255039312208268</v>
       </c>
       <c r="M19">
-        <v>1.281880840280678</v>
+        <v>0.07936184949648428</v>
       </c>
       <c r="N19">
-        <v>0.1482591886037881</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2370072199320994</v>
+        <v>1.306802491993551</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.152313334700807</v>
       </c>
       <c r="Q19">
-        <v>1.041266283481022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2347046909965123</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9609873755359786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.364796119824945</v>
+        <v>1.34195623785476</v>
       </c>
       <c r="C20">
-        <v>0.2472588879658772</v>
+        <v>0.2410835438625654</v>
       </c>
       <c r="D20">
-        <v>0.1269723484271879</v>
+        <v>0.1333851741837151</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4433756141126821</v>
+        <v>0.4057948215124725</v>
       </c>
       <c r="G20">
-        <v>0.3167684384279355</v>
+        <v>0.2771131691794722</v>
       </c>
       <c r="H20">
-        <v>0.002069567600409439</v>
+        <v>0.001718128072134117</v>
       </c>
       <c r="I20">
-        <v>0.002210808953777565</v>
+        <v>0.002271707656495536</v>
       </c>
       <c r="J20">
-        <v>0.2844549335280107</v>
+        <v>0.285749733656516</v>
       </c>
       <c r="K20">
-        <v>0.3396334780908035</v>
+        <v>0.3008470049904872</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1370541047803684</v>
       </c>
       <c r="M20">
-        <v>1.242685362274244</v>
+        <v>0.09402722394252372</v>
       </c>
       <c r="N20">
-        <v>0.3115860161551893</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3262275771499787</v>
+        <v>1.274105823349089</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3163619715387682</v>
       </c>
       <c r="Q20">
-        <v>1.215411155189543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3226765893986681</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.09828365954823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.536325657737166</v>
+        <v>1.509899312073571</v>
       </c>
       <c r="C21">
-        <v>0.2544402074246577</v>
+        <v>0.2493291591526798</v>
       </c>
       <c r="D21">
-        <v>0.1397120824387628</v>
+        <v>0.1510619681238836</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4713993229771205</v>
+        <v>0.4129371530898567</v>
       </c>
       <c r="G21">
-        <v>0.3318855548687765</v>
+        <v>0.3374616495795379</v>
       </c>
       <c r="H21">
-        <v>0.0009207931856903828</v>
+        <v>0.0007505346322604911</v>
       </c>
       <c r="I21">
-        <v>0.001793374104568812</v>
+        <v>0.002062984074169272</v>
       </c>
       <c r="J21">
-        <v>0.2867685891168534</v>
+        <v>0.2323955395147799</v>
       </c>
       <c r="K21">
-        <v>0.3419952554135897</v>
+        <v>0.2916010150989479</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1302025525494166</v>
       </c>
       <c r="M21">
-        <v>1.37941331496404</v>
+        <v>0.09594710010277296</v>
       </c>
       <c r="N21">
-        <v>0.3593958294504915</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3732484747497082</v>
+        <v>1.412402717023724</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.363478563607444</v>
       </c>
       <c r="Q21">
-        <v>1.252614997392854</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3692102541003521</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.075936355038195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.648633267404421</v>
+        <v>1.620259782783364</v>
       </c>
       <c r="C22">
-        <v>0.259741942609736</v>
+        <v>0.2552893028298229</v>
       </c>
       <c r="D22">
-        <v>0.1483413326166527</v>
+        <v>0.1632029368818024</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4888212915401979</v>
+        <v>0.4158616881221917</v>
       </c>
       <c r="G22">
-        <v>0.3408736704093442</v>
+        <v>0.3835833040676278</v>
       </c>
       <c r="H22">
-        <v>0.0004882297130375246</v>
+        <v>0.0003966222894362659</v>
       </c>
       <c r="I22">
-        <v>0.001416956805220693</v>
+        <v>0.001707909858248868</v>
       </c>
       <c r="J22">
-        <v>0.2878594683046956</v>
+        <v>0.2047038149388776</v>
       </c>
       <c r="K22">
-        <v>0.3426186866416536</v>
+        <v>0.2844436118876885</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1255671500707614</v>
       </c>
       <c r="M22">
-        <v>1.471209342258135</v>
+        <v>0.09695482615098783</v>
       </c>
       <c r="N22">
-        <v>0.3815356279421991</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4001860254647553</v>
+        <v>1.504698649527569</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3851130426831304</v>
       </c>
       <c r="Q22">
-        <v>1.274150932800481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3958961590967363</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.056452642067242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.589990699968439</v>
+        <v>1.562311083479472</v>
       </c>
       <c r="C23">
-        <v>0.2563275004620778</v>
+        <v>0.251637244676246</v>
       </c>
       <c r="D23">
-        <v>0.1434601745204702</v>
+        <v>0.1560273456996981</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4808559577583367</v>
+        <v>0.4172348607838643</v>
       </c>
       <c r="G23">
-        <v>0.3373286134572524</v>
+        <v>0.3537725765698099</v>
       </c>
       <c r="H23">
-        <v>0.000698559379748831</v>
+        <v>0.0005668514036442085</v>
       </c>
       <c r="I23">
-        <v>0.001288628728219443</v>
+        <v>0.001510096377115744</v>
       </c>
       <c r="J23">
-        <v>0.2879226416464888</v>
+        <v>0.2230480032966184</v>
       </c>
       <c r="K23">
-        <v>0.343480819170864</v>
+        <v>0.2901097540745212</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.128613810039889</v>
       </c>
       <c r="M23">
-        <v>1.42078623615555</v>
+        <v>0.09719673839167697</v>
       </c>
       <c r="N23">
-        <v>0.3696880337028574</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3859893311107001</v>
+        <v>1.454519321557626</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3735796721360316</v>
       </c>
       <c r="Q23">
-        <v>1.266663139817467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3817866878040945</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.075280033867813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.365625204800352</v>
+        <v>1.342364152501119</v>
       </c>
       <c r="C24">
-        <v>0.2443803145304528</v>
+        <v>0.2375707896982462</v>
       </c>
       <c r="D24">
-        <v>0.1254516074642282</v>
+        <v>0.1318645894463089</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4495441075782978</v>
+        <v>0.4113597126008202</v>
       </c>
       <c r="G24">
-        <v>0.3227094191308524</v>
+        <v>0.2819529631672566</v>
       </c>
       <c r="H24">
-        <v>0.001875270343104418</v>
+        <v>0.001531517521535242</v>
       </c>
       <c r="I24">
-        <v>0.001698514067689949</v>
+        <v>0.001662349354545789</v>
       </c>
       <c r="J24">
-        <v>0.2876284941972003</v>
+        <v>0.2889536574139981</v>
       </c>
       <c r="K24">
-        <v>0.3453327913131581</v>
+        <v>0.3056078759356069</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1388363455034565</v>
       </c>
       <c r="M24">
-        <v>1.232290516824378</v>
+        <v>0.09581229873515085</v>
       </c>
       <c r="N24">
-        <v>0.324933965181728</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.3319471709829713</v>
+        <v>1.264025717963165</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3297897616130001</v>
       </c>
       <c r="Q24">
-        <v>1.234647218575944</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3283107585603133</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.115282825644712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.123182205459074</v>
+        <v>1.107683484580292</v>
       </c>
       <c r="C25">
-        <v>0.2314836097884836</v>
+        <v>0.2192618027574653</v>
       </c>
       <c r="D25">
-        <v>0.1060566216704402</v>
+        <v>0.1102165001283026</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4179788395606678</v>
+        <v>0.3878184506095081</v>
       </c>
       <c r="G25">
-        <v>0.3087619975840212</v>
+        <v>0.2691484888208961</v>
       </c>
       <c r="H25">
-        <v>0.003886152682004207</v>
+        <v>0.003236770793568489</v>
       </c>
       <c r="I25">
-        <v>0.002962564226675291</v>
+        <v>0.002520229877570834</v>
       </c>
       <c r="J25">
-        <v>0.2884493132938104</v>
+        <v>0.2964584202264433</v>
       </c>
       <c r="K25">
-        <v>0.3485153095050286</v>
+        <v>0.3136203641346142</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1473977987434623</v>
       </c>
       <c r="M25">
-        <v>1.029050593822916</v>
+        <v>0.09209990938779633</v>
       </c>
       <c r="N25">
-        <v>0.2767534715939775</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2736639887793828</v>
+        <v>1.053079329029202</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2821302643442465</v>
       </c>
       <c r="Q25">
-        <v>1.206333339596824</v>
+        <v>0.2710376842144697</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.108566743568787</v>
       </c>
     </row>
   </sheetData>
